--- a/QuantLibXL/Data2/XLS/AUD/AUD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD/AUD_MxContributor.xlsx
@@ -1424,7 +1424,7 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.9998508779999999</v>
+        <v>1.999822655</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
@@ -1436,19 +1436,19 @@
         <tr r="X9" s="7"/>
       </tp>
       <tp>
-        <v>1.9998508779999999</v>
+        <v>1.999822655</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
       <tp>
-        <v>1.9998672020000001</v>
+        <v>1.9998364130000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
       <tp>
-        <v>2.363</v>
+        <v>2.4</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X35" s="7"/>
@@ -1460,37 +1460,37 @@
         <tr r="X17" s="7"/>
       </tp>
       <tp>
-        <v>2.4830000000000001</v>
+        <v>2.52</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X36" s="7"/>
       </tp>
       <tp>
-        <v>2.1150000000000002</v>
+        <v>2.1480000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X33" s="7"/>
       </tp>
       <tp>
-        <v>1.9675</v>
+        <v>1.9685000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
       <tp>
-        <v>2.2429999999999999</v>
+        <v>2.278</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
       </tp>
       <tp>
-        <v>1.9525000000000001</v>
+        <v>1.9550000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
       <tp>
-        <v>1.91</v>
+        <v>1.94</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X31" s="7"/>
@@ -1502,19 +1502,19 @@
         <tr r="X13" s="7"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>2.0299999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X32" s="7"/>
       </tp>
       <tp>
-        <v>1.98</v>
+        <v>1.9810000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
       <tp>
-        <v>1.9</v>
+        <v>1.903</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X29" s="7"/>
@@ -1526,32 +1526,32 @@
         <tr r="X12" s="7"/>
       </tp>
       <tp>
-        <v>2.5649999999999999</v>
+        <v>2.6029999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X37" s="7"/>
       </tp>
       <tp>
-        <v>2.65</v>
+        <v>2.6879999999999997</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X38" s="7"/>
       </tp>
       <tp>
-        <v>1.91</v>
+        <v>1.915</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
       <tp>
-        <v>1.885</v>
+        <v>1.9</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W30" s="7"/>
       </tp>
       <tp>
-        <v>1.885</v>
+        <v>1.9</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1560,42 +1560,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.2050000000000001</v>
+        <v>3.2450000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W44" s="7"/>
       </tp>
       <tp>
-        <v>3.1779999999999999</v>
+        <v>3.2149999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W42" s="7"/>
       </tp>
       <tp>
-        <v>3.2250000000000001</v>
+        <v>3.2650000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W43" s="7"/>
       </tp>
       <tp>
-        <v>2.7330000000000001</v>
+        <v>2.77</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W39" s="7"/>
       </tp>
       <tp>
-        <v>2.8679999999999999</v>
+        <v>2.903</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W40" s="7"/>
       </tp>
       <tp>
-        <v>3.0179999999999998</v>
+        <v>3.0529999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1604,7 +1604,7 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.9998508779999999</v>
+        <v>1.999822655</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W7" s="7"/>
@@ -1616,19 +1616,19 @@
         <tr r="W9" s="7"/>
       </tp>
       <tp>
-        <v>1.9998508779999999</v>
+        <v>1.999822655</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W8" s="7"/>
       </tp>
       <tp>
-        <v>1.9998672020000001</v>
+        <v>1.9998364130000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W6" s="7"/>
       </tp>
       <tp>
-        <v>2.363</v>
+        <v>2.4</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W35" s="7"/>
@@ -1640,37 +1640,37 @@
         <tr r="W17" s="7"/>
       </tp>
       <tp>
-        <v>2.4830000000000001</v>
+        <v>2.52</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W36" s="7"/>
       </tp>
       <tp>
-        <v>2.1150000000000002</v>
+        <v>2.1480000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W33" s="7"/>
       </tp>
       <tp>
-        <v>1.9675</v>
+        <v>1.9685000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W15" s="7"/>
       </tp>
       <tp>
-        <v>2.2429999999999999</v>
+        <v>2.278</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W34" s="7"/>
       </tp>
       <tp>
-        <v>1.9525000000000001</v>
+        <v>1.9550000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W16" s="7"/>
       </tp>
       <tp>
-        <v>1.91</v>
+        <v>1.94</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W31" s="7"/>
@@ -1682,19 +1682,19 @@
         <tr r="W13" s="7"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>2.0299999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W32" s="7"/>
       </tp>
       <tp>
-        <v>1.98</v>
+        <v>1.9810000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W14" s="7"/>
       </tp>
       <tp>
-        <v>1.9</v>
+        <v>1.903</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W29" s="7"/>
@@ -1706,19 +1706,19 @@
         <tr r="W12" s="7"/>
       </tp>
       <tp>
-        <v>2.5649999999999999</v>
+        <v>2.6029999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W37" s="7"/>
       </tp>
       <tp>
-        <v>2.65</v>
+        <v>2.6879999999999997</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W38" s="7"/>
       </tp>
       <tp>
-        <v>1.91</v>
+        <v>1.915</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W18" s="7"/>
@@ -1726,42 +1726,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.7330000000000001</v>
+        <v>2.77</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X39" s="7"/>
       </tp>
       <tp>
-        <v>2.8679999999999999</v>
+        <v>2.903</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X40" s="7"/>
       </tp>
       <tp>
-        <v>3.0179999999999998</v>
+        <v>3.0529999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X41" s="7"/>
       </tp>
       <tp>
-        <v>3.1779999999999999</v>
+        <v>3.2149999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X42" s="7"/>
       </tp>
       <tp>
-        <v>3.2250000000000001</v>
+        <v>3.2650000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X43" s="7"/>
       </tp>
       <tp>
-        <v>3.2050000000000001</v>
+        <v>3.2450000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1770,163 +1770,163 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.442591798</v>
+        <v>2.4785481950000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>2.4432623590000002</v>
+        <v>2.4789134750000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC9" s="7"/>
       </tp>
       <tp>
-        <v>2.4426896600000001</v>
+        <v>2.4786543920000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC8" s="7"/>
       </tp>
       <tp>
-        <v>2.44249435</v>
+        <v>2.4785258090000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>2.4022106050000001</v>
+        <v>2.4231991939999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>2.419905977</v>
+        <v>2.4474669969999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>2.4069192699999999</v>
+        <v>2.433599998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>2.443845005</v>
+        <v>2.4789132280000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC10" s="7"/>
       </tp>
       <tp>
-        <v>2.442210459</v>
+        <v>2.4734945609999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>2.4444008799999999</v>
+        <v>2.4788935529999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC11" s="7"/>
       </tp>
       <tp>
-        <v>2.4295894250000001</v>
+        <v>2.45953322</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>2.445375141</v>
+        <v>2.4788868559999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>3.2139641060000002</v>
+        <v>3.2509683260000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z42" s="7"/>
       </tp>
       <tp>
-        <v>3.2608641060000001</v>
+        <v>3.2978400940000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z43" s="7"/>
       </tp>
       <tp>
-        <v>3.2411587480000001</v>
+        <v>3.2793794329999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z44" s="7"/>
       </tp>
       <tp>
-        <v>2.910308621</v>
+        <v>2.9448825869999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z40" s="7"/>
       </tp>
       <tp>
-        <v>2.7768774089999999</v>
+        <v>2.8139425550000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z39" s="7"/>
       </tp>
       <tp>
-        <v>3.0559950599999999</v>
+        <v>3.0905485220000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z41" s="7"/>
       </tp>
       <tp>
-        <v>2.779659009</v>
+        <v>2.8159929770000001</v>
         <stp/>
         <stp>_x0008_AUD3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB37" s="7"/>
       </tp>
       <tp>
-        <v>2.8596440890000001</v>
+        <v>2.897034127</v>
         <stp/>
         <stp>_x0008_AUD3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
       <tp>
-        <v>2.3584429419999999</v>
+        <v>2.3882587649999998</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
       <tp>
-        <v>2.4739999660000001</v>
+        <v>2.5075393530000003</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB34" s="7"/>
       </tp>
       <tp>
-        <v>2.5877985269999999</v>
+        <v>2.622648978</v>
         <stp/>
         <stp>_x0008_AUD3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>2.6901175849999999</v>
+        <v>2.7261240249999998</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB36" s="7"/>
       </tp>
       <tp>
-        <v>2.2075</v>
+        <v>2.2149999999999999</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB29" s="7"/>
       </tp>
       <tp>
-        <v>2.1974999999999998</v>
+        <v>2.2250000000000001</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
       </tp>
       <tp>
-        <v>2.2650000000000001</v>
+        <v>2.2925</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
@@ -1934,109 +1934,109 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.3752720570000001</v>
+        <v>3.4124752740000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB42" s="7"/>
       </tp>
       <tp>
-        <v>3.422421135</v>
+        <v>3.4596073989999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB43" s="7"/>
       </tp>
       <tp>
-        <v>3.4026063569999998</v>
+        <v>3.4410397289999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB44" s="7"/>
       </tp>
       <tp>
-        <v>3.0700555270000001</v>
+        <v>3.104801046</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB40" s="7"/>
       </tp>
       <tp>
-        <v>2.9347368249999999</v>
+        <v>2.9719771079999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
       <tp>
-        <v>3.2164759460000001</v>
+        <v>3.2512088549999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB41" s="7"/>
       </tp>
       <tp>
-        <v>2.6214134069999999</v>
+        <v>2.6575834560000002</v>
         <stp/>
         <stp>_x0008_AUD1M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z37" s="7"/>
       </tp>
       <tp>
-        <v>2.7020059779999999</v>
+        <v>2.7392230289999997</v>
         <stp/>
         <stp>_x0008_AUD1M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z38" s="7"/>
       </tp>
       <tp>
-        <v>1.9629093980000001</v>
+        <v>1.9818288289999999</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z28" s="7"/>
       </tp>
       <tp>
-        <v>2.171818332</v>
+        <v>2.2040158189999999</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z33" s="7"/>
       </tp>
       <tp>
-        <v>2.296910333</v>
+        <v>2.3328139399999999</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z34" s="7"/>
       </tp>
       <tp>
-        <v>2.4200867330000002</v>
+        <v>2.4559482670000001</v>
         <stp/>
         <stp>_x0008_AUD1M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z35" s="7"/>
       </tp>
       <tp>
-        <v>1.9853079470000001</v>
+        <v>2.0053017390000001</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z27" s="7"/>
       </tp>
       <tp>
-        <v>2.5296037469999999</v>
+        <v>2.565447367</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z36" s="7"/>
       </tp>
       <tp>
-        <v>1.9640514359999999</v>
+        <v>1.9715144009999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z29" s="7"/>
       </tp>
       <tp>
-        <v>1.9715261910000001</v>
+        <v>1.998928319</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z31" s="7"/>
       </tp>
       <tp>
-        <v>2.0575013210000002</v>
+        <v>2.0874027509999999</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z32" s="7"/>
       </tp>
       <tp>
-        <v>2.0111391190000001</v>
+        <v>2.0371965329999999</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z26" s="7"/>
@@ -2044,187 +2044,189 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.301655958</v>
+        <v>2.3243308100000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA7" s="7"/>
       </tp>
       <tp>
-        <v>2.3004124589999999</v>
+        <v>2.323429521</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA9" s="7"/>
       </tp>
       <tp>
-        <v>2.3014764780000001</v>
+        <v>2.3240965660000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA8" s="7"/>
       </tp>
       <tp>
-        <v>2.3018350700000001</v>
+        <v>2.3244115889999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA6" s="7"/>
       </tp>
       <tp>
-        <v>2.299244211</v>
+        <v>2.322816913</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA10" s="7"/>
       </tp>
       <tp>
-        <v>2.2891558299999999</v>
+        <v>2.3145427270000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA13" s="7"/>
       </tp>
       <tp>
-        <v>2.2981855790000001</v>
+        <v>2.3224409399999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA11" s="7"/>
       </tp>
       <tp>
-        <v>2.273960389</v>
+        <v>2.3000689400000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA14" s="7"/>
       </tp>
       <tp>
-        <v>2.2969220130000001</v>
+        <v>2.3216281240000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA12" s="7"/>
       </tp>
       <tp>
-        <v>2.8774999999999999</v>
+        <v>2.9125000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD37" s="7"/>
       </tp>
       <tp>
-        <v>2.9550000000000001</v>
+        <v>2.99</v>
         <stp/>
         <stp>_x0008_AUD6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>2.4824999999999999</v>
+        <v>2.5137499999999999</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
       <tp>
-        <v>2.5874999999999999</v>
+        <v>2.6225000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD34" s="7"/>
       </tp>
       <tp>
-        <v>2.6937500000000001</v>
+        <v>2.7287499999999998</v>
         <stp/>
         <stp>_x0008_AUD6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>2.79</v>
+        <v>2.8250000000000002</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD36" s="7"/>
       </tp>
       <tp>
-        <v>2.3588686189999999</v>
+        <v>2.3689828930000001</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD29" s="7"/>
       </tp>
       <tp>
-        <v>2.345420641</v>
+        <v>2.3755747920000001</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
       </tp>
       <tp>
-        <v>2.4021985570000002</v>
+        <v>2.4313380250000001</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.0238306850000001</v>
+        <v>2.052570486</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y7" s="7"/>
       </tp>
       <tp>
-        <v>2.0246363289999998</v>
+        <v>2.0535882779999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y9" s="7"/>
       </tp>
       <tp>
-        <v>2.02395258</v>
+        <v>2.0528704109999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y8" s="7"/>
       </tp>
       <tp>
-        <v>2.0237101499999999</v>
+        <v>2.0524757249999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y6" s="7"/>
       </tp>
       <tp>
-        <v>2.0252945869999999</v>
+        <v>2.0539646079999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y10" s="7"/>
       </tp>
       <tp>
-        <v>2.0262084690000002</v>
+        <v>2.0543482480000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y11" s="7"/>
       </tp>
       <tp>
-        <v>2.0269216480000001</v>
+        <v>2.0549239689999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y12" s="7"/>
       </tp>
       <tp>
-        <v>3.4312499999999999</v>
+        <v>3.4674999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD42" s="7"/>
       </tp>
       <tp>
-        <v>3.4737499999999999</v>
+        <v>3.51</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD43" s="7"/>
       </tp>
       <tp>
-        <v>3.45</v>
+        <v>3.4874999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD44" s="7"/>
       </tp>
       <tp>
-        <v>3.1462500000000002</v>
+        <v>3.18</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD40" s="7"/>
       </tp>
       <tp>
-        <v>3.0212500000000002</v>
+        <v>3.0575000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>3.2837499999999999</v>
+        <v>3.3174999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD41" s="7"/>
@@ -2232,55 +2234,55 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.9550000000000001</v>
+        <v>2.99</v>
         <stp/>
         <stp>_x0008_AUD6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
       <tp>
-        <v>2.8774999999999999</v>
+        <v>2.9125000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC37" s="7"/>
       </tp>
       <tp>
-        <v>2.79</v>
+        <v>2.8250000000000002</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC36" s="7"/>
       </tp>
       <tp>
-        <v>2.6937500000000001</v>
+        <v>2.7287499999999998</v>
         <stp/>
         <stp>_x0008_AUD6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
       <tp>
-        <v>2.5874999999999999</v>
+        <v>2.6225000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC34" s="7"/>
       </tp>
       <tp>
-        <v>2.4824999999999999</v>
+        <v>2.5137499999999999</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>2.4021985570000002</v>
+        <v>2.4313380250000001</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>2.345420641</v>
+        <v>2.3755747920000001</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>2.3588686189999999</v>
+        <v>2.3689828930000001</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC29" s="7"/>
@@ -2288,403 +2290,405 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.9629093980000001</v>
+        <v>1.9818288289999999</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y28" s="7"/>
       </tp>
       <tp>
-        <v>2.7020059779999999</v>
+        <v>2.7392230289999997</v>
         <stp/>
         <stp>_x0008_AUD1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y38" s="7"/>
       </tp>
       <tp>
-        <v>2.6214134069999999</v>
+        <v>2.6575834560000002</v>
         <stp/>
         <stp>_x0008_AUD1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y37" s="7"/>
       </tp>
       <tp>
-        <v>2.5296037469999999</v>
+        <v>2.565447367</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y36" s="7"/>
       </tp>
       <tp>
-        <v>1.9853079470000001</v>
+        <v>2.0053017390000001</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y27" s="7"/>
       </tp>
       <tp>
-        <v>2.4200867330000002</v>
+        <v>2.4559482670000001</v>
         <stp/>
         <stp>_x0008_AUD1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y35" s="7"/>
       </tp>
       <tp>
-        <v>2.296910333</v>
+        <v>2.3328139399999999</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y34" s="7"/>
       </tp>
       <tp>
-        <v>2.171818332</v>
+        <v>2.2040158189999999</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y33" s="7"/>
       </tp>
       <tp>
-        <v>2.0111391190000001</v>
+        <v>2.0371965329999999</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y26" s="7"/>
       </tp>
       <tp>
-        <v>2.0575013210000002</v>
+        <v>2.0874027509999999</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y32" s="7"/>
       </tp>
       <tp>
-        <v>1.9715261910000001</v>
+        <v>1.998928319</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y31" s="7"/>
       </tp>
       <tp>
-        <v>1.9640514359999999</v>
+        <v>1.9715144009999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y29" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.8596440890000001</v>
+        <v>2.897034127</v>
         <stp/>
         <stp>_x0008_AUD3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA38" s="7"/>
       </tp>
       <tp>
-        <v>2.779659009</v>
+        <v>2.8159929770000001</v>
         <stp/>
         <stp>_x0008_AUD3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA37" s="7"/>
       </tp>
       <tp>
-        <v>2.6901175849999999</v>
+        <v>2.7261240249999998</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA36" s="7"/>
       </tp>
       <tp>
-        <v>2.5877985269999999</v>
+        <v>2.622648978</v>
         <stp/>
         <stp>_x0008_AUD3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA35" s="7"/>
       </tp>
       <tp>
-        <v>2.4739999660000001</v>
+        <v>2.5075393530000003</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA34" s="7"/>
       </tp>
       <tp>
-        <v>2.3584429419999999</v>
+        <v>2.3882587649999998</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA33" s="7"/>
       </tp>
       <tp>
-        <v>2.2650000000000001</v>
+        <v>2.2925</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA32" s="7"/>
       </tp>
       <tp>
-        <v>2.1974999999999998</v>
+        <v>2.2250000000000001</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA31" s="7"/>
       </tp>
       <tp>
-        <v>2.2075</v>
+        <v>2.2149999999999999</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA29" s="7"/>
       </tp>
       <tp>
-        <v>3.3752720570000001</v>
+        <v>3.4124752740000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA42" s="7"/>
       </tp>
       <tp>
-        <v>3.422421135</v>
+        <v>3.4596073989999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA43" s="7"/>
       </tp>
       <tp>
-        <v>3.4026063569999998</v>
+        <v>3.4410397289999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA44" s="7"/>
       </tp>
       <tp>
-        <v>2.9347368249999999</v>
+        <v>2.9719771079999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA39" s="7"/>
       </tp>
       <tp>
-        <v>3.0700555270000001</v>
+        <v>3.104801046</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA40" s="7"/>
       </tp>
       <tp>
-        <v>3.2164759460000001</v>
+        <v>3.2512088549999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA41" s="7"/>
       </tp>
       <tp>
-        <v>3.2139641060000002</v>
+        <v>3.2509683260000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y42" s="7"/>
       </tp>
       <tp>
-        <v>3.2608641060000001</v>
+        <v>3.2978400940000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y43" s="7"/>
       </tp>
       <tp>
-        <v>3.2411587480000001</v>
+        <v>3.2793794329999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y44" s="7"/>
       </tp>
       <tp>
-        <v>2.7768774089999999</v>
+        <v>2.8139425550000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y39" s="7"/>
       </tp>
       <tp>
-        <v>2.910308621</v>
+        <v>2.9448825869999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y40" s="7"/>
       </tp>
       <tp>
-        <v>3.0559950599999999</v>
+        <v>3.0905485220000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y41" s="7"/>
       </tp>
       <tp>
-        <v>2.442591798</v>
+        <v>2.4785481950000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD7" s="7"/>
       </tp>
       <tp>
-        <v>2.4432623590000002</v>
+        <v>2.4789134750000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>2.4426896600000001</v>
+        <v>2.4786543920000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>2.44249435</v>
+        <v>2.4785258090000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD6" s="7"/>
       </tp>
       <tp>
-        <v>2.4022106050000001</v>
+        <v>2.4231991939999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD17" s="7"/>
       </tp>
       <tp>
-        <v>2.419905977</v>
+        <v>2.4474669969999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD15" s="7"/>
       </tp>
       <tp>
-        <v>2.4069192699999999</v>
+        <v>2.433599998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD16" s="7"/>
       </tp>
       <tp>
-        <v>2.443845005</v>
+        <v>2.4789132280000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
       <tp>
-        <v>2.442210459</v>
+        <v>2.4734945609999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD13" s="7"/>
       </tp>
       <tp>
-        <v>2.4444008799999999</v>
+        <v>2.4788935529999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>2.4295894250000001</v>
+        <v>2.45953322</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD14" s="7"/>
       </tp>
       <tp>
-        <v>2.445375141</v>
+        <v>2.4788868559999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
       <tp>
-        <v>3.4312499999999999</v>
+        <v>3.4674999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC42" s="7"/>
       </tp>
       <tp>
-        <v>3.4737499999999999</v>
+        <v>3.51</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC43" s="7"/>
       </tp>
       <tp>
-        <v>3.45</v>
+        <v>3.4874999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC44" s="7"/>
       </tp>
       <tp>
-        <v>3.0212500000000002</v>
+        <v>3.0575000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC39" s="7"/>
       </tp>
       <tp>
-        <v>3.1462500000000002</v>
+        <v>3.18</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC40" s="7"/>
       </tp>
       <tp>
-        <v>3.2837499999999999</v>
+        <v>3.3174999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC41" s="7"/>
       </tp>
       <tp>
-        <v>2.0238306850000001</v>
+        <v>2.052570486</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z7" s="7"/>
       </tp>
       <tp>
-        <v>2.0246363289999998</v>
+        <v>2.0535882779999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z9" s="7"/>
       </tp>
       <tp>
-        <v>2.02395258</v>
+        <v>2.0528704109999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z8" s="7"/>
       </tp>
       <tp>
-        <v>2.0237101499999999</v>
+        <v>2.0524757249999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z6" s="7"/>
       </tp>
       <tp>
-        <v>2.0252945869999999</v>
+        <v>2.0539646079999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z10" s="7"/>
       </tp>
       <tp>
-        <v>2.0262084690000002</v>
+        <v>2.0543482480000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z11" s="7"/>
       </tp>
       <tp>
-        <v>2.0269216480000001</v>
+        <v>2.0549239689999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z12" s="7"/>
       </tp>
       <tp>
-        <v>2.301655958</v>
+        <v>2.3243308100000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
       <tp>
-        <v>2.3004124589999999</v>
+        <v>2.323429521</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB9" s="7"/>
       </tp>
       <tp>
-        <v>2.3014764780000001</v>
+        <v>2.3240965660000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB8" s="7"/>
       </tp>
       <tp>
-        <v>2.3018350700000001</v>
+        <v>2.3244115889999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
       <tp>
-        <v>2.299244211</v>
+        <v>2.322816913</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB10" s="7"/>
       </tp>
       <tp>
-        <v>2.2891558299999999</v>
+        <v>2.3145427270000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
       <tp>
-        <v>2.2981855790000001</v>
+        <v>2.3224409399999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB11" s="7"/>
       </tp>
       <tp>
-        <v>2.273960389</v>
+        <v>2.3000689400000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
       <tp>
-        <v>2.2969220130000001</v>
+        <v>2.3216281240000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
@@ -2692,37 +2696,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>97.784999999999997</v>
+        <v>97.77</v>
         <stp/>
         <stp>_x0007_AUD3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB19" s="7"/>
       </tp>
       <tp>
-        <v>97.837242455999998</v>
+        <v>97.790180011999993</v>
         <stp/>
         <stp>_x0007_AUD3MH7_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB23" s="7"/>
       </tp>
       <tp>
-        <v>97.844999999999999</v>
+        <v>97.825000000000003</v>
         <stp/>
         <stp>_x0007_AUD3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB20" s="7"/>
       </tp>
       <tp>
-        <v>97.820251983999995</v>
+        <v>97.75223767</v>
         <stp/>
         <stp>_x0007_AUD3MM7_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB24" s="7"/>
       </tp>
       <tp>
-        <v>97.824704955000001</v>
+        <v>97.822523877999998</v>
         <stp/>
         <stp>_x0007_AUD3MZ6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB22" s="7"/>
       </tp>
       <tp>
-        <v>97.813969483999998</v>
+        <v>97.840709005999997</v>
         <stp/>
         <stp>_x0007_AUD3MU6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB21" s="7"/>
@@ -2740,37 +2744,37 @@
         <tr r="AA25" s="7"/>
       </tp>
       <tp>
-        <v>97.813969483999998</v>
+        <v>97.840709005999997</v>
         <stp/>
         <stp>_x0007_AUD3MU6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA21" s="7"/>
       </tp>
       <tp>
-        <v>97.824704955000001</v>
+        <v>97.822523877999998</v>
         <stp/>
         <stp>_x0007_AUD3MZ6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA22" s="7"/>
       </tp>
       <tp>
-        <v>97.837242455999998</v>
+        <v>97.790180011999993</v>
         <stp/>
         <stp>_x0007_AUD3MH7_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA23" s="7"/>
       </tp>
       <tp>
-        <v>97.784999999999997</v>
+        <v>97.77</v>
         <stp/>
         <stp>_x0007_AUD3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA19" s="7"/>
       </tp>
       <tp>
-        <v>97.820251983999995</v>
+        <v>97.75223767</v>
         <stp/>
         <stp>_x0007_AUD3MM7_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA24" s="7"/>
       </tp>
       <tp>
-        <v>97.844999999999999</v>
+        <v>97.825000000000003</v>
         <stp/>
         <stp>_x0007_AUD3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA20" s="7"/>
@@ -2805,7 +2809,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>4</v>
+            <v>6</v>
           </cell>
         </row>
       </sheetData>
@@ -2938,7 +2942,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="I8">
-            <v>0.99059509150841829</v>
+            <v>0.99064405797637023</v>
           </cell>
         </row>
       </sheetData>
@@ -3355,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="68">
-        <v>42353.47216435185</v>
+        <v>42354.613923611112</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="2"/>
@@ -3388,7 +3392,7 @@
       </c>
       <c r="D5" s="68">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="2"/>
@@ -3421,7 +3425,7 @@
       </c>
       <c r="D6" s="69">
         <f>[1]!TriggerCounter</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="2"/>
@@ -3893,7 +3897,7 @@
       </c>
       <c r="D21" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="E21" s="67"/>
       <c r="F21" s="2"/>
@@ -6661,82 +6665,82 @@
       </c>
       <c r="K6" s="14">
         <f>'ON Pricing'!H6*100</f>
-        <v>1.9998671989852612</v>
+        <v>1.9998364093573029</v>
       </c>
       <c r="L6" s="14">
         <f>K6</f>
-        <v>1.9998671989852612</v>
+        <v>1.9998364093573029</v>
       </c>
       <c r="M6" s="122" t="str">
         <f t="shared" ref="M6:M12" si="0">Currency&amp;$M$4&amp;D6&amp;"="</f>
         <v>AUD1MOND=</v>
       </c>
-      <c r="N6" s="123">
+      <c r="N6" s="123" t="e">
         <f>'1M Pricing'!H6*100</f>
-        <v>2.023526511989326</v>
-      </c>
-      <c r="O6" s="123">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" s="123" t="e">
         <f>N6</f>
-        <v>2.023526511989326</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ref="P6:P14" si="1">Currency&amp;$P$4&amp;D6&amp;"="</f>
         <v>AUD3MOND=</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="14" t="e">
         <f>'3M Pricing'!H6*100</f>
-        <v>2.3018350702479311</v>
-      </c>
-      <c r="R6" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="14" t="e">
         <f>Q6</f>
-        <v>2.3018350702479311</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" ref="S6:S17" si="2">Currency&amp;$S$4&amp;D6&amp;"="</f>
         <v>AUD6MOND=</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="14" t="e">
         <f>'6M Pricing'!H6*100</f>
-        <v>2.4424948591929985</v>
-      </c>
-      <c r="U6" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="14" t="e">
         <f>T6</f>
-        <v>2.4424948591929985</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V6" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,BID)-K6)</f>
-        <v>3.0147389029622218E-9</v>
+        <v>3.6426972549463699E-9</v>
       </c>
       <c r="X6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,ASK)-L6)</f>
-        <v>3.0147389029622218E-9</v>
-      </c>
-      <c r="Y6" s="124">
+        <v>3.6426972549463699E-9</v>
+      </c>
+      <c r="Y6" s="124" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>1.8363801067389218E-4</v>
-      </c>
-      <c r="Z6" s="124">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="124" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>1.8363801067389218E-4</v>
-      </c>
-      <c r="AA6" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA6" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,BID)-Q6)</f>
-        <v>2.4793100905640131E-10</v>
-      </c>
-      <c r="AB6" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB6" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,ASK)-R6)</f>
-        <v>2.4793100905640131E-10</v>
-      </c>
-      <c r="AC6" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC6" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,BID)-T6)</f>
-        <v>5.0919299843243948E-7</v>
-      </c>
-      <c r="AD6" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD6" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,ASK)-U6)</f>
-        <v>5.0919299843243948E-7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE6" s="41" t="s">
         <v>70</v>
@@ -6798,82 +6802,82 @@
       </c>
       <c r="K7" s="16">
         <f>'ON Pricing'!H7*100</f>
-        <v>1.999850874991882</v>
+        <v>1.9998226511594996</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L8" si="3">K7</f>
-        <v>1.999850874991882</v>
+        <v>1.9998226511594996</v>
       </c>
       <c r="M7" s="125" t="str">
         <f t="shared" si="0"/>
         <v>AUD1MTND=</v>
       </c>
-      <c r="N7" s="126">
+      <c r="N7" s="126" t="e">
         <f>'1M Pricing'!H7*100</f>
-        <v>2.0236665013221784</v>
-      </c>
-      <c r="O7" s="126">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O7" s="126" t="e">
         <f t="shared" ref="O7:O8" si="4">N7</f>
-        <v>2.0236665013221784</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>AUD3MTND=</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="16" t="e">
         <f>'3M Pricing'!H7*100</f>
-        <v>2.3016559576969091</v>
-      </c>
-      <c r="R7" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="16" t="e">
         <f t="shared" ref="R7:R8" si="5">Q7</f>
-        <v>2.3016559576969091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S7" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6MTND=</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="16" t="e">
         <f>'6M Pricing'!H7*100</f>
-        <v>2.4425921612768255</v>
-      </c>
-      <c r="U7" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="16" t="e">
         <f t="shared" ref="U7:U8" si="6">T7</f>
-        <v>2.4425921612768255</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V7" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,BID)-K7)</f>
-        <v>3.0081179769325672E-9</v>
+        <v>3.8405003621733158E-9</v>
       </c>
       <c r="X7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,ASK)-L7)</f>
-        <v>3.0081179769325672E-9</v>
-      </c>
-      <c r="Y7" s="127">
+        <v>3.8405003621733158E-9</v>
+      </c>
+      <c r="Y7" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>1.6418367782167209E-4</v>
-      </c>
-      <c r="Z7" s="127">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>1.6418367782167209E-4</v>
-      </c>
-      <c r="AA7" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA7" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,BID)-Q7)</f>
-        <v>3.0309088572266774E-10</v>
-      </c>
-      <c r="AB7" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB7" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,ASK)-R7)</f>
-        <v>3.0309088572266774E-10</v>
-      </c>
-      <c r="AC7" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC7" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,BID)-T7)</f>
-        <v>3.632768255101837E-7</v>
-      </c>
-      <c r="AD7" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD7" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,ASK)-U7)</f>
-        <v>3.632768255101837E-7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE7" s="41"/>
       <c r="AF7" s="2"/>
@@ -6933,82 +6937,82 @@
       </c>
       <c r="K8" s="16">
         <f>'ON Pricing'!H8*100</f>
-        <v>1.999850874991882</v>
+        <v>1.9998226511594996</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>1.999850874991882</v>
+        <v>1.9998226511594996</v>
       </c>
       <c r="M8" s="125" t="str">
         <f t="shared" si="0"/>
         <v>AUD1MSND=</v>
       </c>
-      <c r="N8" s="126">
+      <c r="N8" s="126" t="e">
         <f>'1M Pricing'!H8*100</f>
-        <v>2.0238081881114311</v>
-      </c>
-      <c r="O8" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O8" s="126" t="e">
         <f t="shared" si="4"/>
-        <v>2.0238081881114311</v>
+        <v>#NUM!</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>AUD3MSND=</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="16" t="e">
         <f>'3M Pricing'!H8*100</f>
-        <v>2.301476477656994</v>
-      </c>
-      <c r="R8" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R8" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>2.301476477656994</v>
+        <v>#NUM!</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6MSND=</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="16" t="e">
         <f>'6M Pricing'!H8*100</f>
-        <v>2.4426898626860316</v>
-      </c>
-      <c r="U8" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U8" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>2.4426898626860316</v>
+        <v>#NUM!</v>
       </c>
       <c r="V8" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,BID)-K8)</f>
-        <v>3.0081179769325672E-9</v>
+        <v>3.8405003621733158E-9</v>
       </c>
       <c r="X8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,ASK)-L8)</f>
-        <v>3.0081179769325672E-9</v>
-      </c>
-      <c r="Y8" s="127">
+        <v>3.8405003621733158E-9</v>
+      </c>
+      <c r="Y8" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,BID)-N8)</f>
-        <v>1.443918885688511E-4</v>
-      </c>
-      <c r="Z8" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z8" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,ASK)-O8)</f>
-        <v>1.443918885688511E-4</v>
-      </c>
-      <c r="AA8" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA8" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>3.4300606799320121E-10</v>
-      </c>
-      <c r="AB8" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB8" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>3.4300606799320121E-10</v>
-      </c>
-      <c r="AC8" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC8" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>2.026860315140766E-7</v>
-      </c>
-      <c r="AD8" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD8" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>2.026860315140766E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE8" s="41"/>
       <c r="AF8" s="2"/>
@@ -7068,82 +7072,82 @@
       </c>
       <c r="K9" s="16">
         <f>'ON Pricing'!H9*100</f>
-        <v>2.0000000001115001</v>
+        <v>2.0000000001161307</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" ref="L9:L17" si="7">K9</f>
-        <v>2.0000000001115001</v>
+        <v>2.0000000001161307</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" si="0"/>
         <v>AUD1MSWD=</v>
       </c>
-      <c r="N9" s="126">
+      <c r="N9" s="126" t="e">
         <f>'1M Pricing'!H9*100</f>
-        <v>2.0245988978729392</v>
-      </c>
-      <c r="O9" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O9" s="126" t="e">
         <f t="shared" ref="O9:O12" si="8">N9</f>
-        <v>2.0245988978729392</v>
+        <v>#NUM!</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>AUD3MSWD=</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="16" t="e">
         <f>'3M Pricing'!H9*100</f>
-        <v>2.3004124595287538</v>
-      </c>
-      <c r="R9" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R9" s="16" t="e">
         <f t="shared" ref="R9:R14" si="9">Q9</f>
-        <v>2.3004124595287538</v>
+        <v>#NUM!</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6MSWD=</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="16" t="e">
         <f>'6M Pricing'!H9*100</f>
-        <v>2.4432620947530164</v>
-      </c>
-      <c r="U9" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U9" s="16" t="e">
         <f t="shared" ref="U9:U17" si="10">T9</f>
-        <v>2.4432620947530164</v>
+        <v>#NUM!</v>
       </c>
       <c r="V9" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,BID)-K9)</f>
-        <v>2.8884996616795888E-9</v>
+        <v>2.8838691434884822E-9</v>
       </c>
       <c r="X9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,ASK)-L9)</f>
-        <v>2.8884996616795888E-9</v>
-      </c>
-      <c r="Y9" s="127">
+        <v>2.8838691434884822E-9</v>
+      </c>
+      <c r="Y9" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,BID)-N9)</f>
-        <v>3.7431127060560954E-5</v>
-      </c>
-      <c r="Z9" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z9" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,ASK)-O9)</f>
-        <v>3.7431127060560954E-5</v>
-      </c>
-      <c r="AA9" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA9" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>5.2875392952955735E-10</v>
-      </c>
-      <c r="AB9" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB9" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>5.2875392952955735E-10</v>
-      </c>
-      <c r="AC9" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC9" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>2.6424698384985845E-7</v>
-      </c>
-      <c r="AD9" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD9" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>2.6424698384985845E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE9" s="41" t="s">
         <v>70</v>
@@ -7205,66 +7209,66 @@
         <f t="shared" si="0"/>
         <v>AUD1M2WD=</v>
       </c>
-      <c r="N10" s="126">
+      <c r="N10" s="126" t="e">
         <f>'1M Pricing'!H10*100</f>
-        <v>2.0252843267118323</v>
-      </c>
-      <c r="O10" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O10" s="126" t="e">
         <f t="shared" si="8"/>
-        <v>2.0252843267118323</v>
+        <v>#NUM!</v>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>AUD3M2WD=</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="16" t="e">
         <f>'3M Pricing'!H10*100</f>
-        <v>2.2992442103971538</v>
-      </c>
-      <c r="R10" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R10" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>2.2992442103971538</v>
+        <v>#NUM!</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6M2WD=</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="16" t="e">
         <f>'6M Pricing'!H10*100</f>
-        <v>2.4438454802343363</v>
-      </c>
-      <c r="U10" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U10" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4438454802343363</v>
+        <v>#NUM!</v>
       </c>
       <c r="V10" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
-      <c r="Y10" s="127">
+      <c r="Y10" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,BID)-N10)</f>
-        <v>1.0260288167529552E-5</v>
-      </c>
-      <c r="Z10" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z10" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,ASK)-O10)</f>
-        <v>1.0260288167529552E-5</v>
-      </c>
-      <c r="AA10" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA10" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>6.0284621739015165E-10</v>
-      </c>
-      <c r="AB10" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB10" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>6.0284621739015165E-10</v>
-      </c>
-      <c r="AC10" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC10" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>4.7523433632790102E-7</v>
-      </c>
-      <c r="AD10" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD10" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>4.7523433632790102E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE10" s="41" t="s">
         <v>70</v>
@@ -7326,66 +7330,66 @@
         <f t="shared" si="0"/>
         <v>AUD1M3WD=</v>
       </c>
-      <c r="N11" s="126">
+      <c r="N11" s="126" t="e">
         <f>'1M Pricing'!H11*100</f>
-        <v>2.0260946081382323</v>
-      </c>
-      <c r="O11" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O11" s="126" t="e">
         <f t="shared" si="8"/>
-        <v>2.0260946081382323</v>
+        <v>#NUM!</v>
       </c>
       <c r="P11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>AUD3M3WD=</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="16" t="e">
         <f>'3M Pricing'!H11*100</f>
-        <v>2.2981855788175789</v>
-      </c>
-      <c r="R11" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R11" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>2.2981855788175789</v>
+        <v>#NUM!</v>
       </c>
       <c r="S11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6M3WD=</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="16" t="e">
         <f>'6M Pricing'!H11*100</f>
-        <v>2.4443995827002367</v>
-      </c>
-      <c r="U11" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U11" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4443995827002367</v>
+        <v>#NUM!</v>
       </c>
       <c r="V11" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
-      <c r="Y11" s="127">
+      <c r="Y11" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,BID)-N11)</f>
-        <v>1.1386086176790045E-4</v>
-      </c>
-      <c r="Z11" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z11" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,ASK)-O11)</f>
-        <v>1.1386086176790045E-4</v>
-      </c>
-      <c r="AA11" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA11" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>1.8242118926536932E-10</v>
-      </c>
-      <c r="AB11" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB11" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>1.8242118926536932E-10</v>
-      </c>
-      <c r="AC11" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC11" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>1.2972997631699457E-6</v>
-      </c>
-      <c r="AD11" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD11" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>1.2972997631699457E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE11" s="41" t="s">
         <v>70</v>
@@ -7447,82 +7451,82 @@
       </c>
       <c r="K12" s="16">
         <f>'ON Pricing'!H12*100</f>
-        <v>1.9999999999474074</v>
+        <v>1.9999999999241527</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="7"/>
-        <v>1.9999999999474074</v>
+        <v>1.9999999999241527</v>
       </c>
       <c r="M12" s="125" t="str">
         <f t="shared" si="0"/>
         <v>AUD1M1MD=</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="126" t="e">
         <f>'1M Pricing'!H12*100</f>
-        <v>2.0268387074696865</v>
-      </c>
-      <c r="O12" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O12" s="126" t="e">
         <f t="shared" si="8"/>
-        <v>2.0268387074696865</v>
+        <v>#NUM!</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>AUD3M1MD=</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="16" t="e">
         <f>'3M Pricing'!H12*100</f>
-        <v>2.2969220122143543</v>
-      </c>
-      <c r="R12" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R12" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>2.2969220122143543</v>
+        <v>#NUM!</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6M1MD=</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="16" t="e">
         <f>'6M Pricing'!H12*100</f>
-        <v>2.4453813177658517</v>
-      </c>
-      <c r="U12" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U12" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4453813177658517</v>
+        <v>#NUM!</v>
       </c>
       <c r="V12" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,BID)-K12)</f>
-        <v>5.2592596944123216E-11</v>
+        <v>7.5847328417921744E-11</v>
       </c>
       <c r="X12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,ASK)-L12)</f>
-        <v>5.2592596944123216E-11</v>
-      </c>
-      <c r="Y12" s="127">
+        <v>7.5847328417921744E-11</v>
+      </c>
+      <c r="Y12" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>8.2940530313546645E-5</v>
-      </c>
-      <c r="Z12" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z12" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>8.2940530313546645E-5</v>
-      </c>
-      <c r="AA12" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA12" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>7.8564577066231323E-10</v>
-      </c>
-      <c r="AB12" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB12" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>7.8564577066231323E-10</v>
-      </c>
-      <c r="AC12" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC12" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>6.1767658516842516E-6</v>
-      </c>
-      <c r="AD12" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD12" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>6.1767658516842516E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE12" s="41" t="s">
         <v>70</v>
@@ -7583,11 +7587,11 @@
       </c>
       <c r="K13" s="16">
         <f>'ON Pricing'!H13*100</f>
-        <v>1.9949999998748038</v>
+        <v>1.994999999869183</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="7"/>
-        <v>1.9949999998748038</v>
+        <v>1.994999999869183</v>
       </c>
       <c r="M13" s="125"/>
       <c r="N13" s="126"/>
@@ -7596,54 +7600,54 @@
         <f t="shared" si="1"/>
         <v>AUD3M2MD=</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="16" t="e">
         <f>'3M Pricing'!H13*100</f>
-        <v>2.2891558318826197</v>
-      </c>
-      <c r="R13" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R13" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>2.2891558318826197</v>
+        <v>#NUM!</v>
       </c>
       <c r="S13" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6M2MD=</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="16" t="e">
         <f>'6M Pricing'!H13*100</f>
-        <v>2.4421984227251876</v>
-      </c>
-      <c r="U13" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U13" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4421984227251876</v>
+        <v>#NUM!</v>
       </c>
       <c r="V13" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,BID)-K13)</f>
-        <v>1.2519607572869518E-10</v>
+        <v>1.3081691285776742E-10</v>
       </c>
       <c r="X13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,ASK)-L13)</f>
-        <v>1.2519607572869518E-10</v>
+        <v>1.3081691285776742E-10</v>
       </c>
       <c r="Y13" s="127"/>
       <c r="Z13" s="127"/>
-      <c r="AA13" s="16">
+      <c r="AA13" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,BID)-Q13)</f>
-        <v>1.882619837800803E-9</v>
-      </c>
-      <c r="AB13" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB13" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,ASK)-R13)</f>
-        <v>1.882619837800803E-9</v>
-      </c>
-      <c r="AC13" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC13" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>1.2036274812388115E-5</v>
-      </c>
-      <c r="AD13" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD13" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>1.2036274812388115E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE13" s="41" t="s">
         <v>70</v>
@@ -7704,11 +7708,11 @@
       </c>
       <c r="K14" s="16">
         <f>'ON Pricing'!H14*100</f>
-        <v>1.979999999930947</v>
+        <v>1.9809999999269714</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="7"/>
-        <v>1.979999999930947</v>
+        <v>1.9809999999269714</v>
       </c>
       <c r="M14" s="128"/>
       <c r="N14" s="129"/>
@@ -7717,54 +7721,54 @@
         <f t="shared" si="1"/>
         <v>AUD3M3MD=</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="16" t="e">
         <f>'3M Pricing'!H14*100</f>
-        <v>2.2739603835599391</v>
-      </c>
-      <c r="R14" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R14" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>2.2739603835599391</v>
+        <v>#NUM!</v>
       </c>
       <c r="S14" s="15" t="str">
         <f t="shared" si="2"/>
         <v>AUD6M3MD=</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="16" t="e">
         <f>'6M Pricing'!H14*100</f>
-        <v>2.4296202059641412</v>
-      </c>
-      <c r="U14" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U14" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4296202059641412</v>
+        <v>#NUM!</v>
       </c>
       <c r="V14" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,BID)-K14)</f>
-        <v>6.9052985551820711E-11</v>
+        <v>7.3028694203003397E-11</v>
       </c>
       <c r="X14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,ASK)-L14)</f>
-        <v>6.9052985551820711E-11</v>
+        <v>7.3028694203003397E-11</v>
       </c>
       <c r="Y14" s="130"/>
       <c r="Z14" s="130"/>
-      <c r="AA14" s="16">
+      <c r="AA14" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,BID)-Q14)</f>
-        <v>5.4400608462401578E-9</v>
-      </c>
-      <c r="AB14" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB14" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,ASK)-R14)</f>
-        <v>5.4400608462401578E-9</v>
-      </c>
-      <c r="AC14" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC14" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>3.0780964141108313E-5</v>
-      </c>
-      <c r="AD14" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD14" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>3.0780964141108313E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE14" s="41" t="s">
         <v>70</v>
@@ -7824,11 +7828,11 @@
       </c>
       <c r="K15" s="16">
         <f>'ON Pricing'!H15*100</f>
-        <v>1.9674999999462717</v>
+        <v>1.9684999999428805</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>1.9674999999462717</v>
+        <v>1.9684999999428805</v>
       </c>
       <c r="M15" s="125"/>
       <c r="N15" s="126"/>
@@ -7840,36 +7844,36 @@
         <f t="shared" si="2"/>
         <v>AUD6M4MD=</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="16" t="e">
         <f>'6M Pricing'!H15*100</f>
-        <v>2.4197688711857301</v>
-      </c>
-      <c r="U15" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4197688711857301</v>
+        <v>#NUM!</v>
       </c>
       <c r="V15" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,BID)-K15)</f>
-        <v>5.3728355098314751E-11</v>
+        <v>5.7119642349334754E-11</v>
       </c>
       <c r="X15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,ASK)-L15)</f>
-        <v>5.3728355098314751E-11</v>
+        <v>5.7119642349334754E-11</v>
       </c>
       <c r="Y15" s="127"/>
       <c r="Z15" s="127"/>
       <c r="AA15" s="104"/>
       <c r="AB15" s="104"/>
-      <c r="AC15" s="16">
+      <c r="AC15" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,BID)-T15)</f>
-        <v>1.3710581426984447E-4</v>
-      </c>
-      <c r="AD15" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD15" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,ASK)-U15)</f>
-        <v>1.3710581426984447E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE15" s="41" t="s">
         <v>70</v>
@@ -7929,11 +7933,11 @@
       </c>
       <c r="K16" s="16">
         <f>'ON Pricing'!H16*100</f>
-        <v>1.9524999999568238</v>
+        <v>1.9549999999544179</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>1.9524999999568238</v>
+        <v>1.9549999999544179</v>
       </c>
       <c r="M16" s="125"/>
       <c r="N16" s="126"/>
@@ -7945,36 +7949,36 @@
         <f t="shared" si="2"/>
         <v>AUD6M5MD=</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="16" t="e">
         <f>'6M Pricing'!H16*100</f>
-        <v>2.4060012802185966</v>
-      </c>
-      <c r="U16" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U16" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4060012802185966</v>
+        <v>#NUM!</v>
       </c>
       <c r="V16" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,BID)-K16)</f>
-        <v>4.3176351383067413E-11</v>
+        <v>4.5582204677430127E-11</v>
       </c>
       <c r="X16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,ASK)-L16)</f>
-        <v>4.3176351383067413E-11</v>
+        <v>4.5582204677430127E-11</v>
       </c>
       <c r="Y16" s="127"/>
       <c r="Z16" s="127"/>
       <c r="AA16" s="104"/>
       <c r="AB16" s="104"/>
-      <c r="AC16" s="16">
+      <c r="AC16" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,BID)-T16)</f>
-        <v>9.1798978140333887E-4</v>
-      </c>
-      <c r="AD16" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD16" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,ASK)-U16)</f>
-        <v>9.1798978140333887E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE16" s="41" t="s">
         <v>70</v>
@@ -8034,11 +8038,11 @@
       </c>
       <c r="K17" s="16">
         <f>'ON Pricing'!H17*100</f>
-        <v>1.9449999999639946</v>
+        <v>1.9449999999619569</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>1.9449999999639946</v>
+        <v>1.9449999999619569</v>
       </c>
       <c r="M17" s="128"/>
       <c r="N17" s="129"/>
@@ -8050,36 +8054,36 @@
         <f t="shared" si="2"/>
         <v>AUD6M6MD=</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="16" t="e">
         <f>'6M Pricing'!H17*100</f>
-        <v>2.4022631830517454</v>
-      </c>
-      <c r="U17" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U17" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>2.4022631830517454</v>
+        <v>#NUM!</v>
       </c>
       <c r="V17" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,BID)-K17)</f>
-        <v>3.6005198822408602E-11</v>
+        <v>3.8042902161805614E-11</v>
       </c>
       <c r="X17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,ASK)-L17)</f>
-        <v>3.6005198822408602E-11</v>
+        <v>3.8042902161805614E-11</v>
       </c>
       <c r="Y17" s="130"/>
       <c r="Z17" s="130"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="104"/>
-      <c r="AC17" s="16">
+      <c r="AC17" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,BID)-T17)</f>
-        <v>5.2578051745300058E-5</v>
-      </c>
-      <c r="AD17" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD17" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,ASK)-U17)</f>
-        <v>5.2578051745300058E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE17" s="41" t="s">
         <v>70</v>
@@ -8138,11 +8142,11 @@
       </c>
       <c r="K18" s="16">
         <f>'ON Pricing'!H18*100</f>
-        <v>1.9099999999759265</v>
+        <v>1.9149999999747493</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" ref="L18" si="12">K18</f>
-        <v>1.9099999999759265</v>
+        <v>1.9149999999747493</v>
       </c>
       <c r="M18" s="131"/>
       <c r="N18" s="132"/>
@@ -8158,11 +8162,11 @@
       </c>
       <c r="W18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,BID)-K18)</f>
-        <v>2.4073409932157119E-11</v>
+        <v>2.5250690427469635E-11</v>
       </c>
       <c r="X18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,ASK)-L18)</f>
-        <v>2.4073409932157119E-11</v>
+        <v>2.5250690427469635E-11</v>
       </c>
       <c r="Y18" s="133"/>
       <c r="Z18" s="133"/>
@@ -8205,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="121">
-        <f t="array" ref="B19:B25">_xll.qlASXNextDates(_xll.qlSettingsEvaluationDate(Trigger),A19:A25)</f>
+        <f t="array" ref="B19:B25">_xll.qlASXNextDates(_xll.qlSettingsEvaluationDate(Trigger)+1,A19:A25)</f>
         <v>42440</v>
       </c>
       <c r="C19" s="171" t="s">
@@ -8239,13 +8243,13 @@
         <f t="shared" ref="P19:P25" si="13">Currency&amp;$P$4&amp;D19</f>
         <v>AUD3MH6</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="14" t="e">
         <f>'3M Pricing'!H19</f>
-        <v>97.784999999991356</v>
-      </c>
-      <c r="R19" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="14" t="e">
         <f t="shared" ref="R19:R25" si="14">Q19</f>
-        <v>97.784999999991356</v>
+        <v>#NUM!</v>
       </c>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -8257,13 +8261,13 @@
       <c r="X19" s="107"/>
       <c r="Y19" s="136"/>
       <c r="Z19" s="136"/>
-      <c r="AA19" s="14">
+      <c r="AA19" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,BID)-Q19)</f>
-        <v>8.6401996668428183E-12</v>
-      </c>
-      <c r="AB19" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB19" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,ASK)-R19)</f>
-        <v>8.6401996668428183E-12</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC19" s="102"/>
       <c r="AD19" s="102"/>
@@ -8333,13 +8337,13 @@
         <f t="shared" si="13"/>
         <v>AUD3MM6</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="16" t="e">
         <f>'3M Pricing'!H20</f>
-        <v>97.845000000000041</v>
-      </c>
-      <c r="R20" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R20" s="16" t="e">
         <f t="shared" si="14"/>
-        <v>97.845000000000041</v>
+        <v>#NUM!</v>
       </c>
       <c r="S20" s="103"/>
       <c r="T20" s="103"/>
@@ -8351,13 +8355,13 @@
       <c r="X20" s="108"/>
       <c r="Y20" s="130"/>
       <c r="Z20" s="130"/>
-      <c r="AA20" s="16">
+      <c r="AA20" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,BID)-Q20)</f>
-        <v>4.2632564145606011E-14</v>
-      </c>
-      <c r="AB20" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB20" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,ASK)-R20)</f>
-        <v>4.2632564145606011E-14</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC20" s="104"/>
       <c r="AD20" s="104"/>
@@ -8427,13 +8431,13 @@
         <f t="shared" si="13"/>
         <v>AUD3MU6</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="16" t="e">
         <f>'3M Pricing'!H21</f>
-        <v>97.813619077638975</v>
-      </c>
-      <c r="R21" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R21" s="16" t="e">
         <f t="shared" si="14"/>
-        <v>97.813619077638975</v>
+        <v>#NUM!</v>
       </c>
       <c r="S21" s="103"/>
       <c r="T21" s="103"/>
@@ -8445,13 +8449,13 @@
       <c r="X21" s="108"/>
       <c r="Y21" s="130"/>
       <c r="Z21" s="130"/>
-      <c r="AA21" s="16">
+      <c r="AA21" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,BID)-Q21)</f>
-        <v>3.5040636102223743E-4</v>
-      </c>
-      <c r="AB21" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB21" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,ASK)-R21)</f>
-        <v>3.5040636102223743E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC21" s="104"/>
       <c r="AD21" s="104"/>
@@ -8521,13 +8525,13 @@
         <f t="shared" si="13"/>
         <v>AUD3MZ6</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="16" t="e">
         <f>'3M Pricing'!H22</f>
-        <v>97.824346265756816</v>
-      </c>
-      <c r="R22" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R22" s="16" t="e">
         <f t="shared" si="14"/>
-        <v>97.824346265756816</v>
+        <v>#NUM!</v>
       </c>
       <c r="S22" s="103"/>
       <c r="T22" s="103"/>
@@ -8539,13 +8543,13 @@
       <c r="X22" s="108"/>
       <c r="Y22" s="130"/>
       <c r="Z22" s="130"/>
-      <c r="AA22" s="16">
+      <c r="AA22" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,BID)-Q22)</f>
-        <v>3.5868924318549489E-4</v>
-      </c>
-      <c r="AB22" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB22" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,ASK)-R22)</f>
-        <v>3.5868924318549489E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC22" s="104"/>
       <c r="AD22" s="104"/>
@@ -8615,13 +8619,13 @@
         <f t="shared" si="13"/>
         <v>AUD3MH7</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="16" t="e">
         <f>'3M Pricing'!H23</f>
-        <v>97.837146334230425</v>
-      </c>
-      <c r="R23" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R23" s="16" t="e">
         <f t="shared" si="14"/>
-        <v>97.837146334230425</v>
+        <v>#NUM!</v>
       </c>
       <c r="S23" s="103"/>
       <c r="T23" s="103"/>
@@ -8633,13 +8637,13 @@
       <c r="X23" s="108"/>
       <c r="Y23" s="130"/>
       <c r="Z23" s="130"/>
-      <c r="AA23" s="16">
+      <c r="AA23" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,BID)-Q23)</f>
-        <v>9.6121769573187521E-5</v>
-      </c>
-      <c r="AB23" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB23" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,ASK)-R23)</f>
-        <v>9.6121769573187521E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC23" s="104"/>
       <c r="AD23" s="104"/>
@@ -8709,13 +8713,13 @@
         <f t="shared" ref="P24" si="15">Currency&amp;$P$4&amp;D24</f>
         <v>AUD3MM7</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="16" t="e">
         <f>'3M Pricing'!H24</f>
-        <v>97.820365313174008</v>
-      </c>
-      <c r="R24" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R24" s="16" t="e">
         <f t="shared" ref="R24" si="16">Q24</f>
-        <v>97.820365313174008</v>
+        <v>#NUM!</v>
       </c>
       <c r="S24" s="103"/>
       <c r="T24" s="103"/>
@@ -8725,13 +8729,13 @@
       <c r="X24" s="108"/>
       <c r="Y24" s="130"/>
       <c r="Z24" s="130"/>
-      <c r="AA24" s="16">
+      <c r="AA24" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,BID)-Q24)</f>
-        <v>1.1332917401318809E-4</v>
-      </c>
-      <c r="AB24" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB24" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,ASK)-R24)</f>
-        <v>1.1332917401318809E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC24" s="104"/>
       <c r="AD24" s="104"/>
@@ -8797,13 +8801,13 @@
         <f t="shared" si="13"/>
         <v>AUD3MU7</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="18" t="e">
         <f>'3M Pricing'!H25</f>
-        <v>97.775208373571076</v>
-      </c>
-      <c r="R25" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="R25" s="18" t="e">
         <f t="shared" si="14"/>
-        <v>97.775208373571076</v>
+        <v>#NUM!</v>
       </c>
       <c r="S25" s="105"/>
       <c r="T25" s="105"/>
@@ -8885,13 +8889,13 @@
         <f>Currency&amp;$M$4&amp;D26&amp;"="</f>
         <v>AUD1M3M=</v>
       </c>
-      <c r="N26" s="123">
+      <c r="N26" s="123" t="e">
         <f>'1M Pricing'!H26*100</f>
-        <v>2.0113293975979789</v>
-      </c>
-      <c r="O26" s="123">
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" s="123" t="e">
         <f>N26</f>
-        <v>2.0113293975979789</v>
+        <v>#NUM!</v>
       </c>
       <c r="P26" s="101"/>
       <c r="Q26" s="101"/>
@@ -8904,13 +8908,13 @@
       </c>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
-      <c r="Y26" s="124">
+      <c r="Y26" s="124" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>1.902785979788213E-4</v>
-      </c>
-      <c r="Z26" s="124">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z26" s="124" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>1.902785979788213E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA26" s="102"/>
       <c r="AB26" s="102"/>
@@ -8972,13 +8976,13 @@
         <f>Currency&amp;$M$4&amp;D27&amp;"="</f>
         <v>AUD1M6M=</v>
       </c>
-      <c r="N27" s="126">
+      <c r="N27" s="126" t="e">
         <f>'1M Pricing'!H27*100</f>
-        <v>1.9854894493893667</v>
-      </c>
-      <c r="O27" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" s="126" t="e">
         <f>N27</f>
-        <v>1.9854894493893667</v>
+        <v>#NUM!</v>
       </c>
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
@@ -8991,13 +8995,13 @@
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
-      <c r="Y27" s="127">
+      <c r="Y27" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>1.8150238936653906E-4</v>
-      </c>
-      <c r="Z27" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z27" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>1.8150238936653906E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA27" s="104"/>
       <c r="AB27" s="104"/>
@@ -9059,13 +9063,13 @@
         <f>Currency&amp;$M$4&amp;D28&amp;"="</f>
         <v>AUD1M9M=</v>
       </c>
-      <c r="N28" s="126">
+      <c r="N28" s="126" t="e">
         <f>'1M Pricing'!H28*100</f>
-        <v>1.9629917260433383</v>
-      </c>
-      <c r="O28" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O28" s="126" t="e">
         <f>N28</f>
-        <v>1.9629917260433383</v>
+        <v>#NUM!</v>
       </c>
       <c r="P28" s="103"/>
       <c r="Q28" s="103"/>
@@ -9078,13 +9082,13 @@
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
-      <c r="Y28" s="127">
+      <c r="Y28" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>8.2328043338186774E-5</v>
-      </c>
-      <c r="Z28" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z28" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>8.2328043338186774E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA28" s="104"/>
       <c r="AB28" s="104"/>
@@ -9148,82 +9152,82 @@
       </c>
       <c r="K29" s="16">
         <f>'ON Pricing'!H29*100</f>
-        <v>1.8999999999818193</v>
+        <v>1.9029999999809109</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29:L44" si="18">K29</f>
-        <v>1.8999999999818193</v>
+        <v>1.9029999999809109</v>
       </c>
       <c r="M29" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D29&amp;"="</f>
         <v>AUD1M1Y=</v>
       </c>
-      <c r="N29" s="126">
+      <c r="N29" s="126" t="e">
         <f>'1M Pricing'!H29*100</f>
-        <v>1.9640988415372933</v>
-      </c>
-      <c r="O29" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="126" t="e">
         <f>N29</f>
-        <v>1.9640988415372933</v>
+        <v>#NUM!</v>
       </c>
       <c r="P29" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D29&amp;"="</f>
         <v>AUD3M1Y=</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="16" t="e">
         <f>'3M Pricing'!H29*100</f>
-        <v>2.2075000000246749</v>
-      </c>
-      <c r="R29" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R29" s="16" t="e">
         <f>Q29</f>
-        <v>2.2075000000246749</v>
+        <v>#NUM!</v>
       </c>
       <c r="S29" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D29&amp;"="</f>
         <v>AUD6M1Y=</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="16" t="e">
         <f>'6M Pricing'!H29*100</f>
-        <v>2.3588688513978306</v>
-      </c>
-      <c r="U29" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U29" s="16" t="e">
         <f>T29</f>
-        <v>2.3588688513978306</v>
+        <v>#NUM!</v>
       </c>
       <c r="V29" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,BID)-K29)</f>
-        <v>1.8180568162051713E-11</v>
+        <v>1.9089174685404942E-11</v>
       </c>
       <c r="X29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,ASK)-L29)</f>
-        <v>1.8180568162051713E-11</v>
-      </c>
-      <c r="Y29" s="127">
+        <v>1.9089174685404942E-11</v>
+      </c>
+      <c r="Y29" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
-        <v>4.7405537293432332E-5</v>
-      </c>
-      <c r="Z29" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z29" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
-        <v>4.7405537293432332E-5</v>
-      </c>
-      <c r="AA29" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA29" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,BID)-Q29)</f>
-        <v>2.4674928766899029E-11</v>
-      </c>
-      <c r="AB29" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB29" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,ASK)-R29)</f>
-        <v>2.4674928766899029E-11</v>
-      </c>
-      <c r="AC29" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC29" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>2.3239783075723608E-7</v>
-      </c>
-      <c r="AD29" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD29" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>2.3239783075723608E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE29" s="41" t="s">
         <v>70</v>
@@ -9282,11 +9286,11 @@
       </c>
       <c r="K30" s="16">
         <f>'ON Pricing'!H30*100</f>
-        <v>1.8849999999878326</v>
+        <v>1.8999999999871848</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="18"/>
-        <v>1.8849999999878326</v>
+        <v>1.8999999999871848</v>
       </c>
       <c r="M30" s="125"/>
       <c r="N30" s="126"/>
@@ -9302,11 +9306,11 @@
       </c>
       <c r="W30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,BID)-K30)</f>
-        <v>1.2167378216076941E-11</v>
+        <v>1.2815082328643257E-11</v>
       </c>
       <c r="X30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,ASK)-L30)</f>
-        <v>1.2167378216076941E-11</v>
+        <v>1.2815082328643257E-11</v>
       </c>
       <c r="Y30" s="127"/>
       <c r="Z30" s="127"/>
@@ -9374,82 +9378,82 @@
       </c>
       <c r="K31" s="16">
         <f>'ON Pricing'!H31*100</f>
-        <v>1.9099999999908603</v>
+        <v>1.9399999999903095</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="18"/>
-        <v>1.9099999999908603</v>
+        <v>1.9399999999903095</v>
       </c>
       <c r="M31" s="125" t="str">
         <f t="shared" ref="M31:M38" si="19">Currency&amp;$M$4&amp;D31&amp;"="</f>
         <v>AUD1M2Y=</v>
       </c>
-      <c r="N31" s="126">
+      <c r="N31" s="126" t="e">
         <f>'1M Pricing'!H31*100</f>
-        <v>1.9714997248818096</v>
-      </c>
-      <c r="O31" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="126" t="e">
         <f>N31</f>
-        <v>1.9714997248818096</v>
+        <v>#NUM!</v>
       </c>
       <c r="P31" s="15" t="str">
         <f t="shared" ref="P31:P38" si="20">Currency&amp;$P$4&amp;D31&amp;"="</f>
         <v>AUD3M2Y=</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="16" t="e">
         <f>'3M Pricing'!H31*100</f>
-        <v>2.1975000000201792</v>
-      </c>
-      <c r="R31" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R31" s="16" t="e">
         <f>Q31</f>
-        <v>2.1975000000201792</v>
+        <v>#NUM!</v>
       </c>
       <c r="S31" s="15" t="str">
         <f t="shared" ref="S31:S38" si="21">Currency&amp;$S$4&amp;D31&amp;"="</f>
         <v>AUD6M2Y=</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="16" t="e">
         <f>'6M Pricing'!H31*100</f>
-        <v>2.3454206411348837</v>
-      </c>
-      <c r="U31" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U31" s="16" t="e">
         <f>T31</f>
-        <v>2.3454206411348837</v>
+        <v>#NUM!</v>
       </c>
       <c r="V31" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,BID)-K31)</f>
-        <v>9.1395779833192137E-12</v>
+        <v>9.6904706481382163E-12</v>
       </c>
       <c r="X31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,ASK)-L31)</f>
-        <v>9.1395779833192137E-12</v>
-      </c>
-      <c r="Y31" s="127">
+        <v>9.6904706481382163E-12</v>
+      </c>
+      <c r="Y31" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>2.6466118190571208E-5</v>
-      </c>
-      <c r="Z31" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z31" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>2.6466118190571208E-5</v>
-      </c>
-      <c r="AA31" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA31" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>2.0179413695586845E-11</v>
-      </c>
-      <c r="AB31" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB31" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>2.0179413695586845E-11</v>
-      </c>
-      <c r="AC31" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC31" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>1.3488365979696937E-10</v>
-      </c>
-      <c r="AD31" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD31" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>1.3488365979696937E-10</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE31" s="41" t="s">
         <v>70</v>
@@ -9511,82 +9515,82 @@
       </c>
       <c r="K32" s="16">
         <f>'ON Pricing'!H32*100</f>
-        <v>1.9999999999938183</v>
+        <v>2.0299999999934562</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="18"/>
-        <v>1.9999999999938183</v>
+        <v>2.0299999999934562</v>
       </c>
       <c r="M32" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M3Y=</v>
       </c>
-      <c r="N32" s="126">
+      <c r="N32" s="126" t="e">
         <f>'1M Pricing'!H32*100</f>
-        <v>2.0574180898789396</v>
-      </c>
-      <c r="O32" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O32" s="126" t="e">
         <f>N32</f>
-        <v>2.0574180898789396</v>
+        <v>#NUM!</v>
       </c>
       <c r="P32" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M3Y=</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="16" t="e">
         <f>'3M Pricing'!H32*100</f>
-        <v>2.2648525088879929</v>
-      </c>
-      <c r="R32" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R32" s="16" t="e">
         <f>Q32</f>
-        <v>2.2648525088879929</v>
+        <v>#NUM!</v>
       </c>
       <c r="S32" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M3Y=</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="16" t="e">
         <f>'6M Pricing'!H32*100</f>
-        <v>2.4019938801152487</v>
-      </c>
-      <c r="U32" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U32" s="16" t="e">
         <f>T32</f>
-        <v>2.4019938801152487</v>
+        <v>#NUM!</v>
       </c>
       <c r="V32" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,BID)-K32)</f>
-        <v>6.1817218011128716E-12</v>
+        <v>6.5436545071406726E-12</v>
       </c>
       <c r="X32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,ASK)-L32)</f>
-        <v>6.1817218011128716E-12</v>
-      </c>
-      <c r="Y32" s="127">
+        <v>6.5436545071406726E-12</v>
+      </c>
+      <c r="Y32" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>8.3231121060567403E-5</v>
-      </c>
-      <c r="Z32" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z32" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>8.3231121060567403E-5</v>
-      </c>
-      <c r="AA32" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA32" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>1.474911120071809E-4</v>
-      </c>
-      <c r="AB32" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB32" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>1.474911120071809E-4</v>
-      </c>
-      <c r="AC32" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC32" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>2.0467688475145351E-4</v>
-      </c>
-      <c r="AD32" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD32" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>2.0467688475145351E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE32" s="41" t="s">
         <v>70</v>
@@ -9648,82 +9652,82 @@
       </c>
       <c r="K33" s="16">
         <f>'ON Pricing'!H33*100</f>
-        <v>2.1149999999953115</v>
+        <v>2.1479999999950428</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="18"/>
-        <v>2.1149999999953115</v>
+        <v>2.1479999999950428</v>
       </c>
       <c r="M33" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M4Y=</v>
       </c>
-      <c r="N33" s="126">
+      <c r="N33" s="126" t="e">
         <f>'1M Pricing'!H33*100</f>
-        <v>2.1715283134309282</v>
-      </c>
-      <c r="O33" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O33" s="126" t="e">
         <f>N33</f>
-        <v>2.1715283134309282</v>
+        <v>#NUM!</v>
       </c>
       <c r="P33" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M4Y=</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="16" t="e">
         <f>'3M Pricing'!H33*100</f>
-        <v>2.3582718967434508</v>
-      </c>
-      <c r="R33" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R33" s="16" t="e">
         <f>Q33</f>
-        <v>2.3582718967434508</v>
+        <v>#NUM!</v>
       </c>
       <c r="S33" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M4Y=</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="16" t="e">
         <f>'6M Pricing'!H33*100</f>
-        <v>2.4823924035525868</v>
-      </c>
-      <c r="U33" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U33" s="16" t="e">
         <f>T33</f>
-        <v>2.4823924035525868</v>
+        <v>#NUM!</v>
       </c>
       <c r="V33" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,BID)-K33)</f>
-        <v>4.6886938775969611E-12</v>
+        <v>4.957367849556249E-12</v>
       </c>
       <c r="X33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,ASK)-L33)</f>
-        <v>4.6886938775969611E-12</v>
-      </c>
-      <c r="Y33" s="127">
+        <v>4.957367849556249E-12</v>
+      </c>
+      <c r="Y33" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>2.9001856907173718E-4</v>
-      </c>
-      <c r="Z33" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z33" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>2.9001856907173718E-4</v>
-      </c>
-      <c r="AA33" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA33" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>1.7104525654909608E-4</v>
-      </c>
-      <c r="AB33" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB33" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>1.7104525654909608E-4</v>
-      </c>
-      <c r="AC33" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC33" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>1.0759644741309415E-4</v>
-      </c>
-      <c r="AD33" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD33" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>1.0759644741309415E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE33" s="41" t="s">
         <v>70</v>
@@ -9785,82 +9789,82 @@
       </c>
       <c r="K34" s="16">
         <f>'ON Pricing'!H34*100</f>
-        <v>2.242999999996202</v>
+        <v>2.2779999999959859</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="18"/>
-        <v>2.242999999996202</v>
+        <v>2.2779999999959859</v>
       </c>
       <c r="M34" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M5Y=</v>
       </c>
-      <c r="N34" s="126">
+      <c r="N34" s="126" t="e">
         <f>'1M Pricing'!H34*100</f>
-        <v>2.2966452183931207</v>
-      </c>
-      <c r="O34" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O34" s="126" t="e">
         <f>N34</f>
-        <v>2.2966452183931207</v>
+        <v>#NUM!</v>
       </c>
       <c r="P34" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M5Y=</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="16" t="e">
         <f>'3M Pricing'!H34*100</f>
-        <v>2.4738615920984803</v>
-      </c>
-      <c r="R34" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R34" s="16" t="e">
         <f>Q34</f>
-        <v>2.4738615920984803</v>
+        <v>#NUM!</v>
       </c>
       <c r="S34" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M5Y=</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="16" t="e">
         <f>'6M Pricing'!H34*100</f>
-        <v>2.5874129414548754</v>
-      </c>
-      <c r="U34" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U34" s="16" t="e">
         <f>T34</f>
-        <v>2.5874129414548754</v>
+        <v>#NUM!</v>
       </c>
       <c r="V34" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,BID)-K34)</f>
-        <v>3.7978509226377355E-12</v>
+        <v>4.014122367834716E-12</v>
       </c>
       <c r="X34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,ASK)-L34)</f>
-        <v>3.7978509226377355E-12</v>
-      </c>
-      <c r="Y34" s="127">
+        <v>4.014122367834716E-12</v>
+      </c>
+      <c r="Y34" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
-        <v>2.6511460687927979E-4</v>
-      </c>
-      <c r="Z34" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z34" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
-        <v>2.6511460687927979E-4</v>
-      </c>
-      <c r="AA34" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA34" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
-        <v>1.3837390151971718E-4</v>
-      </c>
-      <c r="AB34" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB34" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
-        <v>1.3837390151971718E-4</v>
-      </c>
-      <c r="AC34" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC34" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>8.7058545124474307E-5</v>
-      </c>
-      <c r="AD34" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD34" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>8.7058545124474307E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE34" s="41" t="s">
         <v>70</v>
@@ -9922,82 +9926,82 @@
       </c>
       <c r="K35" s="16">
         <f>'ON Pricing'!H35*100</f>
-        <v>2.3629999999967906</v>
+        <v>2.399999999996604</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="18"/>
-        <v>2.3629999999967906</v>
+        <v>2.399999999996604</v>
       </c>
       <c r="M35" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M6Y=</v>
       </c>
-      <c r="N35" s="126">
+      <c r="N35" s="126" t="e">
         <f>'1M Pricing'!H35*100</f>
-        <v>2.4197026975212443</v>
-      </c>
-      <c r="O35" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O35" s="126" t="e">
         <f t="shared" ref="O35:O38" si="22">N35</f>
-        <v>2.4197026975212443</v>
+        <v>#NUM!</v>
       </c>
       <c r="P35" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M6Y=</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="16" t="e">
         <f>'3M Pricing'!H35*100</f>
-        <v>2.5876854147630279</v>
-      </c>
-      <c r="R35" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R35" s="16" t="e">
         <f t="shared" ref="R35:R38" si="23">Q35</f>
-        <v>2.5876854147630279</v>
+        <v>#NUM!</v>
       </c>
       <c r="S35" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M6Y=</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="16" t="e">
         <f>'6M Pricing'!H35*100</f>
-        <v>2.6936765261980984</v>
-      </c>
-      <c r="U35" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U35" s="16" t="e">
         <f t="shared" ref="U35:U38" si="24">T35</f>
-        <v>2.6936765261980984</v>
+        <v>#NUM!</v>
       </c>
       <c r="V35" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,BID)-K35)</f>
-        <v>3.2094327195864025E-12</v>
+        <v>3.3959501877234288E-12</v>
       </c>
       <c r="X35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,ASK)-L35)</f>
-        <v>3.2094327195864025E-12</v>
-      </c>
-      <c r="Y35" s="127">
+        <v>3.3959501877234288E-12</v>
+      </c>
+      <c r="Y35" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>3.8403547875587307E-4</v>
-      </c>
-      <c r="Z35" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z35" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>3.8403547875587307E-4</v>
-      </c>
-      <c r="AA35" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA35" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>1.1311223697196837E-4</v>
-      </c>
-      <c r="AB35" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB35" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>1.1311223697196837E-4</v>
-      </c>
-      <c r="AC35" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC35" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>7.3473801901702274E-5</v>
-      </c>
-      <c r="AD35" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD35" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>7.3473801901702274E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE35" s="41" t="s">
         <v>70</v>
@@ -10059,82 +10063,82 @@
       </c>
       <c r="K36" s="16">
         <f>'ON Pricing'!H36*100</f>
-        <v>2.4829999999972094</v>
+        <v>2.5199999999970459</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="18"/>
-        <v>2.4829999999972094</v>
+        <v>2.5199999999970459</v>
       </c>
       <c r="M36" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M7Y=</v>
       </c>
-      <c r="N36" s="126">
+      <c r="N36" s="126" t="e">
         <f>'1M Pricing'!H36*100</f>
-        <v>2.52936406131567</v>
-      </c>
-      <c r="O36" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O36" s="126" t="e">
         <f t="shared" si="22"/>
-        <v>2.52936406131567</v>
+        <v>#NUM!</v>
       </c>
       <c r="P36" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M7Y=</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="16" t="e">
         <f>'3M Pricing'!H36*100</f>
-        <v>2.6900161680324035</v>
-      </c>
-      <c r="R36" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R36" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>2.6900161680324035</v>
+        <v>#NUM!</v>
       </c>
       <c r="S36" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M7Y=</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="16" t="e">
         <f>'6M Pricing'!H36*100</f>
-        <v>2.7899361744716087</v>
-      </c>
-      <c r="U36" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U36" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>2.7899361744716087</v>
+        <v>#NUM!</v>
       </c>
       <c r="V36" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,BID)-K36)</f>
-        <v>2.7906565946977935E-12</v>
+        <v>2.9540814239226165E-12</v>
       </c>
       <c r="X36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,ASK)-L36)</f>
-        <v>2.7906565946977935E-12</v>
-      </c>
-      <c r="Y36" s="127">
+        <v>2.9540814239226165E-12</v>
+      </c>
+      <c r="Y36" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
-        <v>2.3968568432986004E-4</v>
-      </c>
-      <c r="Z36" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z36" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
-        <v>2.3968568432986004E-4</v>
-      </c>
-      <c r="AA36" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA36" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
-        <v>1.0141696759635721E-4</v>
-      </c>
-      <c r="AB36" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB36" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
-        <v>1.0141696759635721E-4</v>
-      </c>
-      <c r="AC36" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC36" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>6.382552839134803E-5</v>
-      </c>
-      <c r="AD36" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD36" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>6.382552839134803E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE36" s="41" t="s">
         <v>70</v>
@@ -10196,82 +10200,82 @@
       </c>
       <c r="K37" s="16">
         <f>'ON Pricing'!H37*100</f>
-        <v>2.5649999999975344</v>
+        <v>2.6029999999973863</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="18"/>
-        <v>2.5649999999975344</v>
+        <v>2.6029999999973863</v>
       </c>
       <c r="M37" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M8Y=</v>
       </c>
-      <c r="N37" s="126">
+      <c r="N37" s="126" t="e">
         <f>'1M Pricing'!H37*100</f>
-        <v>2.6219789562008167</v>
-      </c>
-      <c r="O37" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O37" s="126" t="e">
         <f t="shared" si="22"/>
-        <v>2.6219789562008167</v>
+        <v>#NUM!</v>
       </c>
       <c r="P37" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M8Y=</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="16" t="e">
         <f>'3M Pricing'!H37*100</f>
-        <v>2.7795591600260563</v>
-      </c>
-      <c r="R37" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R37" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>2.7795591600260563</v>
+        <v>#NUM!</v>
       </c>
       <c r="S37" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M8Y=</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T37" s="16" t="e">
         <f>'6M Pricing'!H37*100</f>
-        <v>2.8774434115369196</v>
-      </c>
-      <c r="U37" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U37" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>2.8774434115369196</v>
+        <v>#NUM!</v>
       </c>
       <c r="V37" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,BID)-K37)</f>
-        <v>2.4655832930875476E-12</v>
+        <v>2.6134649999676185E-12</v>
       </c>
       <c r="X37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,ASK)-L37)</f>
-        <v>2.4655832930875476E-12</v>
-      </c>
-      <c r="Y37" s="127">
+        <v>2.6134649999676185E-12</v>
+      </c>
+      <c r="Y37" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
-        <v>5.6554920081675064E-4</v>
-      </c>
-      <c r="Z37" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z37" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
-        <v>5.6554920081675064E-4</v>
-      </c>
-      <c r="AA37" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA37" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
-        <v>9.9848973943661434E-5</v>
-      </c>
-      <c r="AB37" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB37" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
-        <v>9.9848973943661434E-5</v>
-      </c>
-      <c r="AC37" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC37" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>5.6588463080320395E-5</v>
-      </c>
-      <c r="AD37" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD37" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>5.6588463080320395E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE37" s="41" t="s">
         <v>70</v>
@@ -10333,82 +10337,82 @@
       </c>
       <c r="K38" s="16">
         <f>'ON Pricing'!H38*100</f>
-        <v>2.6499999999977768</v>
+        <v>2.6879999999976372</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="18"/>
-        <v>2.6499999999977768</v>
+        <v>2.6879999999976372</v>
       </c>
       <c r="M38" s="125" t="str">
         <f t="shared" si="19"/>
         <v>AUD1M9Y=</v>
       </c>
-      <c r="N38" s="126">
+      <c r="N38" s="126" t="e">
         <f>'1M Pricing'!H38*100</f>
-        <v>2.7023376284700538</v>
-      </c>
-      <c r="O38" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O38" s="126" t="e">
         <f t="shared" si="22"/>
-        <v>2.7023376284700538</v>
+        <v>#NUM!</v>
       </c>
       <c r="P38" s="15" t="str">
         <f t="shared" si="20"/>
         <v>AUD3M9Y=</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="16" t="e">
         <f>'3M Pricing'!H38*100</f>
-        <v>2.8595435372670259</v>
-      </c>
-      <c r="R38" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R38" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>2.8595435372670259</v>
+        <v>#NUM!</v>
       </c>
       <c r="S38" s="15" t="str">
         <f t="shared" si="21"/>
         <v>AUD6M9Y=</v>
       </c>
-      <c r="T38" s="16">
+      <c r="T38" s="16" t="e">
         <f>'6M Pricing'!H38*100</f>
-        <v>2.9549240736922648</v>
-      </c>
-      <c r="U38" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U38" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>2.9549240736922648</v>
+        <v>#NUM!</v>
       </c>
       <c r="V38" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,BID)-K38)</f>
-        <v>2.2231105845094135E-12</v>
+        <v>2.3625545964023331E-12</v>
       </c>
       <c r="X38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,ASK)-L38)</f>
-        <v>2.2231105845094135E-12</v>
-      </c>
-      <c r="Y38" s="127">
+        <v>2.3625545964023331E-12</v>
+      </c>
+      <c r="Y38" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>3.3165047005390136E-4</v>
-      </c>
-      <c r="Z38" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z38" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>3.3165047005390136E-4</v>
-      </c>
-      <c r="AA38" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA38" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>1.0055173297418563E-4</v>
-      </c>
-      <c r="AB38" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB38" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>1.0055173297418563E-4</v>
-      </c>
-      <c r="AC38" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC38" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>7.5926307735230125E-5</v>
-      </c>
-      <c r="AD38" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD38" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>7.5926307735230125E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE38" s="41" t="s">
         <v>70</v>
@@ -10470,82 +10474,82 @@
       </c>
       <c r="K39" s="16">
         <f>'ON Pricing'!H39*100</f>
-        <v>2.7329999999979635</v>
+        <v>2.7699999999978506</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="18"/>
-        <v>2.7329999999979635</v>
+        <v>2.7699999999978506</v>
       </c>
       <c r="M39" s="125" t="str">
         <f t="shared" ref="M39:M44" si="25">Currency&amp;$M$4&amp;D39&amp;"="</f>
         <v>AUD1M10Y=</v>
       </c>
-      <c r="N39" s="126">
+      <c r="N39" s="126" t="e">
         <f>'1M Pricing'!H39*100</f>
-        <v>2.7766458315951135</v>
-      </c>
-      <c r="O39" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O39" s="126" t="e">
         <f t="shared" ref="O39:O44" si="26">N39</f>
-        <v>2.7766458315951135</v>
+        <v>#NUM!</v>
       </c>
       <c r="P39" s="15" t="str">
         <f t="shared" ref="P39:P44" si="27">Currency&amp;$P$4&amp;D39&amp;"="</f>
         <v>AUD3M10Y=</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q39" s="16" t="e">
         <f>'3M Pricing'!H39*100</f>
-        <v>2.9346391388690112</v>
-      </c>
-      <c r="R39" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R39" s="16" t="e">
         <f t="shared" ref="R39:R44" si="28">Q39</f>
-        <v>2.9346391388690112</v>
+        <v>#NUM!</v>
       </c>
       <c r="S39" s="15" t="str">
         <f t="shared" ref="S39:S44" si="29">Currency&amp;$S$4&amp;D39&amp;"="</f>
         <v>AUD6M10Y=</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T39" s="16" t="e">
         <f>'6M Pricing'!H39*100</f>
-        <v>3.0211806612837506</v>
-      </c>
-      <c r="U39" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U39" s="16" t="e">
         <f t="shared" ref="U39:U44" si="30">T39</f>
-        <v>3.0211806612837506</v>
+        <v>#NUM!</v>
       </c>
       <c r="V39" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,BID)-K39)</f>
-        <v>2.0365931163723872E-12</v>
+        <v>2.1493917756743031E-12</v>
       </c>
       <c r="X39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,ASK)-L39)</f>
-        <v>2.0365931163723872E-12</v>
-      </c>
-      <c r="Y39" s="127">
+        <v>2.1493917756743031E-12</v>
+      </c>
+      <c r="Y39" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>2.3157740488644052E-4</v>
-      </c>
-      <c r="Z39" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z39" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>2.3157740488644052E-4</v>
-      </c>
-      <c r="AA39" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA39" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>9.76861309887056E-5</v>
-      </c>
-      <c r="AB39" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB39" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>9.76861309887056E-5</v>
-      </c>
-      <c r="AC39" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC39" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>6.9338716249589538E-5</v>
-      </c>
-      <c r="AD39" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD39" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>6.9338716249589538E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE39" s="41" t="s">
         <v>70</v>
@@ -10607,82 +10611,82 @@
       </c>
       <c r="K40" s="16">
         <f>'ON Pricing'!H40*100</f>
-        <v>2.8679999999946744</v>
+        <v>2.9029999999926863</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="18"/>
-        <v>2.8679999999946744</v>
+        <v>2.9029999999926863</v>
       </c>
       <c r="M40" s="125" t="str">
         <f t="shared" si="25"/>
         <v>AUD1M12Y=</v>
       </c>
-      <c r="N40" s="126">
+      <c r="N40" s="126" t="e">
         <f>'1M Pricing'!H40*100</f>
-        <v>2.9100971896639556</v>
-      </c>
-      <c r="O40" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O40" s="126" t="e">
         <f t="shared" si="26"/>
-        <v>2.9100971896639556</v>
+        <v>#NUM!</v>
       </c>
       <c r="P40" s="15" t="str">
         <f t="shared" si="27"/>
         <v>AUD3M12Y=</v>
       </c>
-      <c r="Q40" s="16">
+      <c r="Q40" s="16" t="e">
         <f>'3M Pricing'!H40*100</f>
-        <v>3.0699716475778942</v>
-      </c>
-      <c r="R40" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R40" s="16" t="e">
         <f t="shared" si="28"/>
-        <v>3.0699716475778942</v>
+        <v>#NUM!</v>
       </c>
       <c r="S40" s="15" t="str">
         <f t="shared" si="29"/>
         <v>AUD6M12Y=</v>
       </c>
-      <c r="T40" s="16">
+      <c r="T40" s="16" t="e">
         <f>'6M Pricing'!H40*100</f>
-        <v>3.1461904518234518</v>
-      </c>
-      <c r="U40" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U40" s="16" t="e">
         <f t="shared" si="30"/>
-        <v>3.1461904518234518</v>
+        <v>#NUM!</v>
       </c>
       <c r="V40" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,BID)-K40)</f>
-        <v>5.3255178045219509E-12</v>
+        <v>7.3137051970206812E-12</v>
       </c>
       <c r="X40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,ASK)-L40)</f>
-        <v>5.3255178045219509E-12</v>
-      </c>
-      <c r="Y40" s="127">
+        <v>7.3137051970206812E-12</v>
+      </c>
+      <c r="Y40" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,BID)-N40)</f>
-        <v>2.1143133604439868E-4</v>
-      </c>
-      <c r="Z40" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z40" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,ASK)-O40)</f>
-        <v>2.1143133604439868E-4</v>
-      </c>
-      <c r="AA40" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA40" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,BID)-Q40)</f>
-        <v>8.3879422105859192E-5</v>
-      </c>
-      <c r="AB40" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB40" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,ASK)-R40)</f>
-        <v>8.3879422105859192E-5</v>
-      </c>
-      <c r="AC40" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC40" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>5.9548176548407383E-5</v>
-      </c>
-      <c r="AD40" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD40" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>5.9548176548407383E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE40" s="41" t="s">
         <v>70</v>
@@ -10744,82 +10748,82 @@
       </c>
       <c r="K41" s="16">
         <f>'ON Pricing'!H41*100</f>
-        <v>3.01800000000007</v>
+        <v>3.053000000000103</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="18"/>
-        <v>3.01800000000007</v>
+        <v>3.053000000000103</v>
       </c>
       <c r="M41" s="125" t="str">
         <f t="shared" si="25"/>
         <v>AUD1M15Y=</v>
       </c>
-      <c r="N41" s="126">
+      <c r="N41" s="126" t="e">
         <f>'1M Pricing'!H41*100</f>
-        <v>3.0557798919070236</v>
-      </c>
-      <c r="O41" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O41" s="126" t="e">
         <f t="shared" si="26"/>
-        <v>3.0557798919070236</v>
+        <v>#NUM!</v>
       </c>
       <c r="P41" s="15" t="str">
         <f t="shared" si="27"/>
         <v>AUD3M15Y=</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="16" t="e">
         <f>'3M Pricing'!H41*100</f>
-        <v>3.2163850072298725</v>
-      </c>
-      <c r="R41" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R41" s="16" t="e">
         <f t="shared" si="28"/>
-        <v>3.2163850072298725</v>
+        <v>#NUM!</v>
       </c>
       <c r="S41" s="15" t="str">
         <f t="shared" si="29"/>
         <v>AUD6M15Y=</v>
       </c>
-      <c r="T41" s="16">
+      <c r="T41" s="16" t="e">
         <f>'6M Pricing'!H41*100</f>
-        <v>3.2836858115549621</v>
-      </c>
-      <c r="U41" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U41" s="16" t="e">
         <f t="shared" si="30"/>
-        <v>3.2836858115549621</v>
+        <v>#NUM!</v>
       </c>
       <c r="V41" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,BID)-K41)</f>
-        <v>7.0166095156309893E-14</v>
+        <v>1.0302869668521453E-13</v>
       </c>
       <c r="X41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,ASK)-L41)</f>
-        <v>7.0166095156309893E-14</v>
-      </c>
-      <c r="Y41" s="127">
+        <v>1.0302869668521453E-13</v>
+      </c>
+      <c r="Y41" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,BID)-N41)</f>
-        <v>2.1516809297628114E-4</v>
-      </c>
-      <c r="Z41" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z41" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,ASK)-O41)</f>
-        <v>2.1516809297628114E-4</v>
-      </c>
-      <c r="AA41" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA41" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,BID)-Q41)</f>
-        <v>9.0938770127557689E-5</v>
-      </c>
-      <c r="AB41" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB41" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,ASK)-R41)</f>
-        <v>9.0938770127557689E-5</v>
-      </c>
-      <c r="AC41" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC41" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,BID)-T41)</f>
-        <v>6.4188445037860475E-5</v>
-      </c>
-      <c r="AD41" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD41" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,ASK)-U41)</f>
-        <v>6.4188445037860475E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE41" s="41" t="s">
         <v>70</v>
@@ -10881,82 +10885,82 @@
       </c>
       <c r="K42" s="16">
         <f>'ON Pricing'!H42*100</f>
-        <v>3.1780000000005986</v>
+        <v>3.2150000000007442</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="18"/>
-        <v>3.1780000000005986</v>
+        <v>3.2150000000007442</v>
       </c>
       <c r="M42" s="125" t="str">
         <f t="shared" si="25"/>
         <v>AUD1M20Y=</v>
       </c>
-      <c r="N42" s="126">
+      <c r="N42" s="126" t="e">
         <f>'1M Pricing'!H42*100</f>
-        <v>3.2137697453845524</v>
-      </c>
-      <c r="O42" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O42" s="126" t="e">
         <f t="shared" si="26"/>
-        <v>3.2137697453845524</v>
+        <v>#NUM!</v>
       </c>
       <c r="P42" s="15" t="str">
         <f t="shared" si="27"/>
         <v>AUD3M20Y=</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="16" t="e">
         <f>'3M Pricing'!H42*100</f>
-        <v>3.3751908824486003</v>
-      </c>
-      <c r="R42" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R42" s="16" t="e">
         <f t="shared" si="28"/>
-        <v>3.3751908824486003</v>
+        <v>#NUM!</v>
       </c>
       <c r="S42" s="15" t="str">
         <f t="shared" si="29"/>
         <v>AUD6M20Y=</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="16" t="e">
         <f>'6M Pricing'!H42*100</f>
-        <v>3.4311959289351206</v>
-      </c>
-      <c r="U42" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U42" s="16" t="e">
         <f t="shared" si="30"/>
-        <v>3.4311959289351206</v>
+        <v>#NUM!</v>
       </c>
       <c r="V42" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,BID)-K42)</f>
-        <v>5.9863225487788441E-13</v>
+        <v>7.4429351570870494E-13</v>
       </c>
       <c r="X42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,ASK)-L42)</f>
-        <v>5.9863225487788441E-13</v>
-      </c>
-      <c r="Y42" s="127">
+        <v>7.4429351570870494E-13</v>
+      </c>
+      <c r="Y42" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,BID)-N42)</f>
-        <v>1.9436061544775285E-4</v>
-      </c>
-      <c r="Z42" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z42" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,ASK)-O42)</f>
-        <v>1.9436061544775285E-4</v>
-      </c>
-      <c r="AA42" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA42" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,BID)-Q42)</f>
-        <v>8.1174551399776362E-5</v>
-      </c>
-      <c r="AB42" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB42" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,ASK)-R42)</f>
-        <v>8.1174551399776362E-5</v>
-      </c>
-      <c r="AC42" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC42" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,BID)-T42)</f>
-        <v>5.4071064879313013E-5</v>
-      </c>
-      <c r="AD42" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD42" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,ASK)-U42)</f>
-        <v>5.4071064879313013E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE42" s="41" t="s">
         <v>70</v>
@@ -11018,82 +11022,82 @@
       </c>
       <c r="K43" s="16">
         <f>'ON Pricing'!H43*100</f>
-        <v>3.2249999999984347</v>
+        <v>3.264999999997837</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="18"/>
-        <v>3.2249999999984347</v>
+        <v>3.264999999997837</v>
       </c>
       <c r="M43" s="125" t="str">
         <f t="shared" si="25"/>
         <v>AUD1M25Y=</v>
       </c>
-      <c r="N43" s="126">
+      <c r="N43" s="126" t="e">
         <f>'1M Pricing'!H43*100</f>
-        <v>3.2606938232625651</v>
-      </c>
-      <c r="O43" s="126">
+        <v>#NUM!</v>
+      </c>
+      <c r="O43" s="126" t="e">
         <f t="shared" si="26"/>
-        <v>3.2606938232625651</v>
+        <v>#NUM!</v>
       </c>
       <c r="P43" s="15" t="str">
         <f t="shared" si="27"/>
         <v>AUD3M25Y=</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="16" t="e">
         <f>'3M Pricing'!H43*100</f>
-        <v>3.4223503463764224</v>
-      </c>
-      <c r="R43" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="R43" s="16" t="e">
         <f t="shared" si="28"/>
-        <v>3.4223503463764224</v>
+        <v>#NUM!</v>
       </c>
       <c r="S43" s="15" t="str">
         <f t="shared" si="29"/>
         <v>AUD6M25Y=</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T43" s="16" t="e">
         <f>'6M Pricing'!H43*100</f>
-        <v>3.4737019098151349</v>
-      </c>
-      <c r="U43" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U43" s="16" t="e">
         <f t="shared" si="30"/>
-        <v>3.4737019098151349</v>
+        <v>#NUM!</v>
       </c>
       <c r="V43" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W43" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,BID)-K43)</f>
-        <v>1.5654144647214707E-12</v>
+        <v>2.163158541179655E-12</v>
       </c>
       <c r="X43" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,ASK)-L43)</f>
-        <v>1.5654144647214707E-12</v>
-      </c>
-      <c r="Y43" s="127">
+        <v>2.163158541179655E-12</v>
+      </c>
+      <c r="Y43" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,BID)-N43)</f>
-        <v>1.7028273743502353E-4</v>
-      </c>
-      <c r="Z43" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z43" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,ASK)-O43)</f>
-        <v>1.7028273743502353E-4</v>
-      </c>
-      <c r="AA43" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA43" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,BID)-Q43)</f>
-        <v>7.0788623577566767E-5</v>
-      </c>
-      <c r="AB43" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB43" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,ASK)-R43)</f>
-        <v>7.0788623577566767E-5</v>
-      </c>
-      <c r="AC43" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC43" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,BID)-T43)</f>
-        <v>4.8090184864957308E-5</v>
-      </c>
-      <c r="AD43" s="16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD43" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,ASK)-U43)</f>
-        <v>4.8090184864957308E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE43" s="41" t="s">
         <v>70</v>
@@ -11155,82 +11159,82 @@
       </c>
       <c r="K44" s="18">
         <f>'ON Pricing'!H44*100</f>
-        <v>3.2049999999997727</v>
+        <v>3.2449999999996781</v>
       </c>
       <c r="L44" s="18">
         <f t="shared" si="18"/>
-        <v>3.2049999999997727</v>
+        <v>3.2449999999996781</v>
       </c>
       <c r="M44" s="138" t="str">
         <f t="shared" si="25"/>
         <v>AUD1M30Y=</v>
       </c>
-      <c r="N44" s="139">
+      <c r="N44" s="139" t="e">
         <f>'1M Pricing'!H44*100</f>
-        <v>3.2410041771684344</v>
-      </c>
-      <c r="O44" s="139">
+        <v>#NUM!</v>
+      </c>
+      <c r="O44" s="139" t="e">
         <f t="shared" si="26"/>
-        <v>3.2410041771684344</v>
+        <v>#NUM!</v>
       </c>
       <c r="P44" s="17" t="str">
         <f t="shared" si="27"/>
         <v>AUD3M30Y=</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="18" t="e">
         <f>'3M Pricing'!H44*100</f>
-        <v>3.4025427368974013</v>
-      </c>
-      <c r="R44" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="R44" s="18" t="e">
         <f t="shared" si="28"/>
-        <v>3.4025427368974013</v>
+        <v>#NUM!</v>
       </c>
       <c r="S44" s="17" t="str">
         <f t="shared" si="29"/>
         <v>AUD6M30Y=</v>
       </c>
-      <c r="T44" s="18">
+      <c r="T44" s="18" t="e">
         <f>'6M Pricing'!H44*100</f>
-        <v>3.4499568204436462</v>
-      </c>
-      <c r="U44" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="U44" s="18" t="e">
         <f t="shared" si="30"/>
-        <v>3.4499568204436462</v>
+        <v>#NUM!</v>
       </c>
       <c r="V44" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W44" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J44,BID)-K44)</f>
-        <v>2.2737367544323206E-13</v>
+        <v>3.219646771412954E-13</v>
       </c>
       <c r="X44" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J44,ASK)-L44)</f>
-        <v>2.2737367544323206E-13</v>
-      </c>
-      <c r="Y44" s="140">
+        <v>3.219646771412954E-13</v>
+      </c>
+      <c r="Y44" s="140" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M44,BID)-N44)</f>
-        <v>1.5457083156578122E-4</v>
-      </c>
-      <c r="Z44" s="140">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z44" s="140" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$M44,ASK)-O44)</f>
-        <v>1.5457083156578122E-4</v>
-      </c>
-      <c r="AA44" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA44" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P44,BID)-Q44)</f>
-        <v>6.3620102598527239E-5</v>
-      </c>
-      <c r="AB44" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB44" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$P44,ASK)-R44)</f>
-        <v>6.3620102598527239E-5</v>
-      </c>
-      <c r="AC44" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC44" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S44,BID)-T44)</f>
-        <v>4.3179556354022708E-5</v>
-      </c>
-      <c r="AD44" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD44" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S44,ASK)-U44)</f>
-        <v>4.3179556354022708E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE44" s="41" t="s">
         <v>70</v>
@@ -14967,19 +14971,19 @@
       </c>
       <c r="E6" s="162">
         <f t="shared" ref="E6" si="0">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="162">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E6,)</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="162">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F6)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlIndexFixing(OvernightIndex,E6,TRUE,InterestRatesTrigger)</f>
-        <v>1.9998671989852612E-2</v>
+        <v>1.9998364093573029E-2</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>Contribution!J6</f>
@@ -15015,19 +15019,19 @@
       </c>
       <c r="E7" s="156">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="F7" s="156">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="156">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="H7" s="157">
         <f>_xll.qlIndexFixing(OvernightIndex,E7,TRUE,InterestRatesTrigger)</f>
-        <v>1.999850874991882E-2</v>
+        <v>1.9998226511594996E-2</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>Contribution!J7</f>
@@ -15061,19 +15065,19 @@
       </c>
       <c r="E8" s="159">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="F8" s="159">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E8,)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G8" s="159">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F8)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="H8" s="160">
         <f>_xll.qlIndexFixing(OvernightIndex,E8,TRUE,InterestRatesTrigger)</f>
-        <v>1.999850874991882E-2</v>
+        <v>1.9998226511594996E-2</v>
       </c>
       <c r="I8" s="154" t="str">
         <f>Contribution!J8</f>
@@ -15116,15 +15120,15 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48">
         <f>_xll.qlSwapStartDate(L9)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlSwapMaturityDate(L9)</f>
-        <v>42361</v>
+        <v>42362</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRatesTrigger)</f>
-        <v>2.0000000001115001E-2</v>
+        <v>2.0000000001161308E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!J9</f>
@@ -15137,7 +15141,7 @@
       <c r="K9" s="61"/>
       <c r="L9" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C9,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c2#0000</v>
+        <v>obj_002a5#0000</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="87" t="s">
@@ -15173,22 +15177,22 @@
       </c>
       <c r="F10" s="48">
         <f>_xll.qlSwapStartDate(L10)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlSwapMaturityDate(L10)</f>
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRatesTrigger)</f>
-        <v>2.0000006938740308E-2</v>
+        <v>2.0000502627993931E-2</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="60"/>
       <c r="L10" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C10,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d6#0000</v>
+        <v>obj_002a6#0000</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="41"/>
@@ -15216,22 +15220,22 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48">
         <f>_xll.qlSwapStartDate(L11)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlSwapMaturityDate(L11)</f>
-        <v>42375</v>
+        <v>42376</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRatesTrigger)</f>
-        <v>1.9999828019398144E-2</v>
+        <v>2.000049487496584E-2</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="60"/>
       <c r="L11" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C11,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c6#0000</v>
+        <v>obj_002a0#0000</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -15259,7 +15263,7 @@
       <c r="E12" s="48"/>
       <c r="F12" s="48">
         <f>_xll.qlSwapStartDate(L12)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlSwapMaturityDate(L12)</f>
@@ -15267,7 +15271,7 @@
       </c>
       <c r="H12" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRatesTrigger)</f>
-        <v>1.9999999999474074E-2</v>
+        <v>1.9999999999241527E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!J12</f>
@@ -15280,7 +15284,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C12,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002ca#0000</v>
+        <v>obj_002a7#0000</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -15308,15 +15312,15 @@
       <c r="E13" s="48"/>
       <c r="F13" s="48">
         <f>_xll.qlSwapStartDate(L13)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlSwapMaturityDate(L13)</f>
-        <v>42416</v>
+        <v>42417</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRatesTrigger)</f>
-        <v>1.9949999998748039E-2</v>
+        <v>1.994999999869183E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!J13</f>
@@ -15329,7 +15333,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C13,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d0#0000</v>
+        <v>obj_0029a#0000</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -15357,15 +15361,15 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48">
         <f>_xll.qlSwapStartDate(L14)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlSwapMaturityDate(L14)</f>
-        <v>42445</v>
+        <v>42446</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRatesTrigger)</f>
-        <v>1.9799999999309471E-2</v>
+        <v>1.9809999999269714E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!J14</f>
@@ -15378,7 +15382,7 @@
       <c r="K14" s="60"/>
       <c r="L14" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C14,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002bf#0000</v>
+        <v>obj_00299#0000</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -15406,7 +15410,7 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48">
         <f>_xll.qlSwapStartDate(L15)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlSwapMaturityDate(L15)</f>
@@ -15414,7 +15418,7 @@
       </c>
       <c r="H15" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRatesTrigger)</f>
-        <v>1.9674999999462716E-2</v>
+        <v>1.9684999999428805E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!J15</f>
@@ -15427,7 +15431,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C15,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c5#0000</v>
+        <v>obj_002a4#0000</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -15455,15 +15459,15 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48">
         <f>_xll.qlSwapStartDate(L16)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlSwapMaturityDate(L16)</f>
-        <v>42506</v>
+        <v>42507</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRatesTrigger)</f>
-        <v>1.9524999999568238E-2</v>
+        <v>1.9549999999544179E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!J16</f>
@@ -15476,7 +15480,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C16,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002be#0000</v>
+        <v>obj_002a2#0000</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -15504,15 +15508,15 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48">
         <f>_xll.qlSwapStartDate(L17)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlSwapMaturityDate(L17)</f>
-        <v>42537</v>
+        <v>42538</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRatesTrigger)</f>
-        <v>1.9449999999639946E-2</v>
+        <v>1.944999999961957E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!J17</f>
@@ -15525,7 +15529,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C17,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002cf#0000</v>
+        <v>obj_0029f#0000</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -15553,15 +15557,15 @@
       <c r="E18" s="49"/>
       <c r="F18" s="49">
         <f>_xll.qlSwapStartDate(L18)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G18" s="49">
         <f>_xll.qlSwapMaturityDate(L18)</f>
-        <v>42629</v>
+        <v>42632</v>
       </c>
       <c r="H18" s="50">
         <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRatesTrigger)</f>
-        <v>1.9099999999759264E-2</v>
+        <v>1.9149999999747494E-2</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>Contribution!J18</f>
@@ -15574,7 +15578,7 @@
       <c r="K18" s="60"/>
       <c r="L18" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C18,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002cd#0000</v>
+        <v>obj_00297#0000</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -15872,15 +15876,15 @@
       <c r="E29" s="48"/>
       <c r="F29" s="48">
         <f>_xll.qlSwapStartDate(L29)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlSwapMaturityDate(L29)</f>
-        <v>42720</v>
+        <v>42723</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRatesTrigger)</f>
-        <v>1.8999999999818194E-2</v>
+        <v>1.9029999999809109E-2</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!J29</f>
@@ -15893,7 +15897,7 @@
       <c r="K29" s="60"/>
       <c r="L29" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C29,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d7#0000</v>
+        <v>obj_00293#0000</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -15921,15 +15925,15 @@
       <c r="E30" s="48"/>
       <c r="F30" s="48">
         <f>_xll.qlSwapStartDate(L30)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlSwapMaturityDate(L30)</f>
-        <v>42902</v>
+        <v>42905</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRatesTrigger)</f>
-        <v>1.8849999999878325E-2</v>
+        <v>1.8999999999871849E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!J30</f>
@@ -15942,7 +15946,7 @@
       <c r="K30" s="60"/>
       <c r="L30" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C30,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c3#0000</v>
+        <v>obj_00290#0000</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -15970,7 +15974,7 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48">
         <f>_xll.qlSwapStartDate(L31)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlSwapMaturityDate(L31)</f>
@@ -15978,7 +15982,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRatesTrigger)</f>
-        <v>1.9099999999908603E-2</v>
+        <v>1.9399999999903095E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!J31</f>
@@ -15991,7 +15995,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C31,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d1#0000</v>
+        <v>obj_00292#0000</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -16019,7 +16023,7 @@
       <c r="E32" s="48"/>
       <c r="F32" s="48">
         <f>_xll.qlSwapStartDate(L32)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlSwapMaturityDate(L32)</f>
@@ -16027,7 +16031,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRatesTrigger)</f>
-        <v>1.9999999999938182E-2</v>
+        <v>2.0299999999934561E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!J32</f>
@@ -16040,7 +16044,7 @@
       <c r="K32" s="60"/>
       <c r="L32" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C32,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002cb#0000</v>
+        <v>obj_00294#0000</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -16068,15 +16072,15 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48">
         <f>_xll.qlSwapStartDate(L33)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlSwapMaturityDate(L33)</f>
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRatesTrigger)</f>
-        <v>2.1149999999953116E-2</v>
+        <v>2.1479999999950428E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!J33</f>
@@ -16089,7 +16093,7 @@
       <c r="K33" s="60"/>
       <c r="L33" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C33,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002ce#0000</v>
+        <v>obj_0029d#0000</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -16117,15 +16121,15 @@
       <c r="E34" s="48"/>
       <c r="F34" s="48">
         <f>_xll.qlSwapStartDate(L34)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlSwapMaturityDate(L34)</f>
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRatesTrigger)</f>
-        <v>2.2429999999962022E-2</v>
+        <v>2.277999999995986E-2</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!J34</f>
@@ -16138,7 +16142,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C34,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c9#0000</v>
+        <v>obj_002a3#0000</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -16166,15 +16170,15 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48">
         <f>_xll.qlSwapStartDate(L35)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlSwapMaturityDate(L35)</f>
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRatesTrigger)</f>
-        <v>2.3629999999967906E-2</v>
+        <v>2.3999999999966042E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!J35</f>
@@ -16187,7 +16191,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C35,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c8#0000</v>
+        <v>obj_0029c#0000</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -16215,15 +16219,15 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48">
         <f>_xll.qlSwapStartDate(L36)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlSwapMaturityDate(L36)</f>
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRatesTrigger)</f>
-        <v>2.4829999999972093E-2</v>
+        <v>2.5199999999970461E-2</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!J36</f>
@@ -16236,7 +16240,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C36,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c0#0000</v>
+        <v>obj_002a8#0000</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -16264,7 +16268,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48">
         <f>_xll.qlSwapStartDate(L37)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlSwapMaturityDate(L37)</f>
@@ -16272,7 +16276,7 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRatesTrigger)</f>
-        <v>2.5649999999975345E-2</v>
+        <v>2.6029999999973862E-2</v>
       </c>
       <c r="I37" s="38" t="str">
         <f>Contribution!J37</f>
@@ -16285,7 +16289,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C37,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d5#0000</v>
+        <v>obj_0029b#0000</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -16313,15 +16317,15 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48">
         <f>_xll.qlSwapStartDate(L38)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlSwapMaturityDate(L38)</f>
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRatesTrigger)</f>
-        <v>2.6499999999977767E-2</v>
+        <v>2.6879999999976371E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!J38</f>
@@ -16334,7 +16338,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C38,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d4#0000</v>
+        <v>obj_002a9#0000</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -16362,15 +16366,15 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48">
         <f>_xll.qlSwapStartDate(L39)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlSwapMaturityDate(L39)</f>
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRatesTrigger)</f>
-        <v>2.7329999999979634E-2</v>
+        <v>2.7699999999978506E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!J39</f>
@@ -16383,7 +16387,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C39,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002cc#0000</v>
+        <v>obj_00291#0000</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -16411,15 +16415,15 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48">
         <f>_xll.qlSwapStartDate(L40)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlSwapMaturityDate(L40)</f>
-        <v>46737</v>
+        <v>46738</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L40,InterestRatesTrigger)</f>
-        <v>2.8679999999946745E-2</v>
+        <v>2.9029999999926864E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!J40</f>
@@ -16432,7 +16436,7 @@
       <c r="K40" s="60"/>
       <c r="L40" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C40,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d3#0000</v>
+        <v>obj_0029e#0000</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -16460,15 +16464,15 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48">
         <f>_xll.qlSwapStartDate(L41)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlSwapMaturityDate(L41)</f>
-        <v>47833</v>
+        <v>47834</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L41,InterestRatesTrigger)</f>
-        <v>3.0180000000000699E-2</v>
+        <v>3.0530000000001029E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!J41</f>
@@ -16481,7 +16485,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C41,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002d2#0000</v>
+        <v>obj_00298#0000</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -16509,7 +16513,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="48">
         <f>_xll.qlSwapStartDate(L42)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlSwapMaturityDate(L42)</f>
@@ -16517,7 +16521,7 @@
       </c>
       <c r="H42" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L42,InterestRatesTrigger)</f>
-        <v>3.1780000000005984E-2</v>
+        <v>3.2150000000007443E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!J42</f>
@@ -16530,7 +16534,7 @@
       <c r="K42" s="60"/>
       <c r="L42" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C42,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c1#0000</v>
+        <v>obj_002a1#0000</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -16558,7 +16562,7 @@
       <c r="E43" s="48"/>
       <c r="F43" s="48">
         <f>_xll.qlSwapStartDate(L43)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlSwapMaturityDate(L43)</f>
@@ -16566,7 +16570,7 @@
       </c>
       <c r="H43" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L43,InterestRatesTrigger)</f>
-        <v>3.2249999999984347E-2</v>
+        <v>3.264999999997837E-2</v>
       </c>
       <c r="I43" s="38" t="str">
         <f>Contribution!J43</f>
@@ -16579,7 +16583,7 @@
       <c r="K43" s="60"/>
       <c r="L43" s="29" t="str">
         <f>_xll.qlMakeOIS(,1,C43,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c7#0000</v>
+        <v>obj_00296#0000</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -16607,7 +16611,7 @@
       <c r="E44" s="48"/>
       <c r="F44" s="48">
         <f>_xll.qlSwapStartDate(L44)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G44" s="48">
         <f>_xll.qlSwapMaturityDate(L44)</f>
@@ -16615,7 +16619,7 @@
       </c>
       <c r="H44" s="47">
         <f>_xll.qlOvernightIndexedSwapFairRate(L44,InterestRatesTrigger)</f>
-        <v>3.2049999999997726E-2</v>
+        <v>3.244999999999678E-2</v>
       </c>
       <c r="I44" s="40" t="str">
         <f>Contribution!J44</f>
@@ -16628,7 +16632,7 @@
       <c r="K44" s="60"/>
       <c r="L44" s="31" t="str">
         <f>_xll.qlMakeOIS(,1,C44,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
-        <v>obj_002c4#0000</v>
+        <v>obj_00295#0000</v>
       </c>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
@@ -18975,19 +18979,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E44" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="H6" s="52">
+        <v>42355</v>
+      </c>
+      <c r="H6" s="52" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.0235265119893261E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!M6</f>
@@ -18995,9 +18999,9 @@
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="87" t="str">
+      <c r="L6" s="87" t="e">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_00329#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="91"/>
@@ -19027,19 +19031,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42355</v>
-      </c>
-      <c r="H7" s="152">
+        <v>42356</v>
+      </c>
+      <c r="H7" s="152" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.0236665013221786E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!M7</f>
@@ -19074,7 +19078,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -19084,19 +19088,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42356</v>
-      </c>
-      <c r="H8" s="52">
+        <v>42359</v>
+      </c>
+      <c r="H8" s="52" t="e">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.0238081881114311E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!M8</f>
@@ -19106,7 +19110,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002e9#0000</v>
+        <v>obj_002ca#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -19132,7 +19136,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -19142,19 +19146,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42362</v>
-      </c>
-      <c r="H9" s="47">
+        <v>42367</v>
+      </c>
+      <c r="H9" s="47" t="e">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.0245988978729392E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!M9</f>
@@ -19164,7 +19168,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002f5#0000</v>
+        <v>obj_002c7#0000</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="91"/>
@@ -19184,7 +19188,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -19194,19 +19198,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42369</v>
-      </c>
-      <c r="H10" s="47">
+        <v>42373</v>
+      </c>
+      <c r="H10" s="47" t="e">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.0252843267118324E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!M10</f>
@@ -19216,7 +19220,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00308#0000</v>
+        <v>obj_002b7#0000</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="91"/>
@@ -19246,19 +19250,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42376</v>
-      </c>
-      <c r="H11" s="47">
+        <v>42377</v>
+      </c>
+      <c r="H11" s="47" t="e">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.0260946081382323E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!M11</f>
@@ -19268,7 +19272,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002da#0000</v>
+        <v>obj_002c6#0000</v>
       </c>
       <c r="M11" s="85"/>
       <c r="N11" s="91"/>
@@ -19288,7 +19292,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -19298,19 +19302,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42387</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="47" t="e">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.0268387074696866E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!M12</f>
@@ -19320,7 +19324,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002ff#0000</v>
+        <v>obj_002e4#0000</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="91"/>
@@ -19706,19 +19710,19 @@
       </c>
       <c r="E26" s="45">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G26" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="H26" s="46">
+        <v>42446</v>
+      </c>
+      <c r="H26" s="46" t="e">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.0113293975979791E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I26" s="39" t="str">
         <f>Contribution!M26</f>
@@ -19728,7 +19732,7 @@
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e4#0000</v>
+        <v>obj_002e1#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="87" t="s">
@@ -19761,19 +19765,19 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42537</v>
-      </c>
-      <c r="H27" s="47">
+        <v>42538</v>
+      </c>
+      <c r="H27" s="47" t="e">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>1.9854894493893667E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I27" s="38" t="str">
         <f>Contribution!M27</f>
@@ -19783,7 +19787,7 @@
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f1#0000</v>
+        <v>obj_002ec#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -19810,19 +19814,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42629</v>
-      </c>
-      <c r="H28" s="47">
+        <v>42632</v>
+      </c>
+      <c r="H28" s="47" t="e">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>1.9629917260433383E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!M28</f>
@@ -19832,7 +19836,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002d8#0000</v>
+        <v>obj_002bd#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -19859,19 +19863,19 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42720</v>
-      </c>
-      <c r="H29" s="47">
+        <v>42723</v>
+      </c>
+      <c r="H29" s="47" t="e">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>1.9640988415372932E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!M29</f>
@@ -19881,7 +19885,7 @@
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002ee#0000</v>
+        <v>obj_002b9#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="91"/>
@@ -19908,26 +19912,26 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42902</v>
-      </c>
-      <c r="H30" s="47">
+        <v>42905</v>
+      </c>
+      <c r="H30" s="47" t="e">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>1.9608030658608624E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="55"/>
       <c r="K30" s="41"/>
       <c r="L30" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e2#0000</v>
+        <v>obj_002db#0000</v>
       </c>
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
@@ -19954,19 +19958,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
         <v>43087</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="47" t="e">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>1.9714997248818096E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!M31</f>
@@ -19976,7 +19980,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0030b#0000</v>
+        <v>obj_002e6#0000</v>
       </c>
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
@@ -20003,19 +20007,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>43451</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="47" t="e">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>2.0574180898789395E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!M32</f>
@@ -20025,7 +20029,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e8#0000</v>
+        <v>obj_002d8#0000</v>
       </c>
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
@@ -20052,19 +20056,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43815</v>
-      </c>
-      <c r="H33" s="47">
+        <v>43816</v>
+      </c>
+      <c r="H33" s="47" t="e">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>2.1715283134309281E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!M33</f>
@@ -20074,7 +20078,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0030a#0000</v>
+        <v>obj_002f7#0000</v>
       </c>
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
@@ -20101,19 +20105,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44181</v>
-      </c>
-      <c r="H34" s="47">
+        <v>44182</v>
+      </c>
+      <c r="H34" s="47" t="e">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>2.2966452183931209E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!M34</f>
@@ -20123,7 +20127,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f3#0000</v>
+        <v>obj_002c1#0000</v>
       </c>
       <c r="M34" s="92"/>
       <c r="N34" s="91"/>
@@ -20150,26 +20154,26 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44546</v>
-      </c>
-      <c r="H35" s="47">
+        <v>44547</v>
+      </c>
+      <c r="H35" s="47" t="e">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>2.4197026975212445E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="41"/>
       <c r="L35" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031e#0000</v>
+        <v>obj_002f1#0000</v>
       </c>
       <c r="M35" s="92"/>
       <c r="N35" s="91"/>
@@ -20196,19 +20200,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44911</v>
-      </c>
-      <c r="H36" s="47">
+        <v>44914</v>
+      </c>
+      <c r="H36" s="47" t="e">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>2.5293640613156702E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!M36</f>
@@ -20218,7 +20222,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00324#0000</v>
+        <v>obj_002e9#0000</v>
       </c>
       <c r="M36" s="92"/>
       <c r="N36" s="91"/>
@@ -20245,26 +20249,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
         <v>45278</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="47" t="e">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>2.6219789562008166E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41"/>
       <c r="L37" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00310#0000</v>
+        <v>obj_002df#0000</v>
       </c>
       <c r="M37" s="92"/>
       <c r="N37" s="91"/>
@@ -20291,26 +20295,26 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45642</v>
-      </c>
-      <c r="H38" s="47">
+        <v>45643</v>
+      </c>
+      <c r="H38" s="47" t="e">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>2.7023376284700536E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
       <c r="K38" s="41"/>
       <c r="L38" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031d#0000</v>
+        <v>obj_002e8#0000</v>
       </c>
       <c r="M38" s="92"/>
       <c r="N38" s="91"/>
@@ -20337,19 +20341,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46007</v>
-      </c>
-      <c r="H39" s="47">
+        <v>46008</v>
+      </c>
+      <c r="H39" s="47" t="e">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>2.7766458315951134E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!M39</f>
@@ -20359,7 +20363,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00318#0000</v>
+        <v>obj_002bc#0000</v>
       </c>
       <c r="M39" s="92"/>
       <c r="N39" s="91"/>
@@ -20386,19 +20390,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>46737</v>
-      </c>
-      <c r="H40" s="47">
+        <v>46738</v>
+      </c>
+      <c r="H40" s="47" t="e">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>2.9100971896639554E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!M40</f>
@@ -20408,7 +20412,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002ed#0000</v>
+        <v>obj_002d0#0000</v>
       </c>
       <c r="M40" s="92"/>
       <c r="N40" s="91"/>
@@ -20435,19 +20439,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>47833</v>
-      </c>
-      <c r="H41" s="47">
+        <v>47834</v>
+      </c>
+      <c r="H41" s="47" t="e">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>3.0557798919070237E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!M41</f>
@@ -20457,7 +20461,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f4#0000</v>
+        <v>obj_002d1#0000</v>
       </c>
       <c r="M41" s="92"/>
       <c r="N41" s="91"/>
@@ -20484,19 +20488,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
         <v>49660</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="47" t="e">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>3.2137697453845523E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!M42</f>
@@ -20506,7 +20510,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00322#0000</v>
+        <v>obj_002c9#0000</v>
       </c>
       <c r="M42" s="92"/>
       <c r="N42" s="91"/>
@@ -20533,19 +20537,19 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
         <v>51487</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="47" t="e">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>3.260693823262565E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I43" s="38" t="str">
         <f>Contribution!M43</f>
@@ -20555,7 +20559,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00300#0000</v>
+        <v>obj_002d3#0000</v>
       </c>
       <c r="M43" s="92"/>
       <c r="N43" s="91"/>
@@ -20582,19 +20586,19 @@
       </c>
       <c r="E44" s="49">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F44" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L44,E44,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G44" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L44,F44,Trigger)</f>
         <v>53314</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="50" t="e">
         <f>_xll.qlIndexFixing(L44,E44,TRUE,AllTriggers)</f>
-        <v>3.2410041771684342E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I44" s="40" t="str">
         <f>Contribution!M44</f>
@@ -20604,7 +20608,7 @@
       <c r="K44" s="41"/>
       <c r="L44" s="56" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C44,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00309#0000</v>
+        <v>obj_002cb#0000</v>
       </c>
       <c r="M44" s="92"/>
       <c r="N44" s="91"/>
@@ -23351,19 +23355,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="H6" s="52">
+        <v>42355</v>
+      </c>
+      <c r="H6" s="52" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.3018350702479311E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!P6</f>
@@ -23371,9 +23375,9 @@
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="57"/>
-      <c r="L6" s="87" t="str">
+      <c r="L6" s="87" t="e">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_00328#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="6"/>
@@ -23403,19 +23407,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42355</v>
-      </c>
-      <c r="H7" s="152">
+        <v>42356</v>
+      </c>
+      <c r="H7" s="152" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.3016559576969089E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!P7</f>
@@ -23450,7 +23454,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -23460,19 +23464,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42356</v>
-      </c>
-      <c r="H8" s="52">
+        <v>42359</v>
+      </c>
+      <c r="H8" s="52" t="e">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.301476477656994E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!P8</f>
@@ -23482,7 +23486,7 @@
       <c r="K8" s="91"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00319#0000</v>
+        <v>obj_002f0#0000</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="87" t="b">
@@ -23508,7 +23512,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -23518,19 +23522,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42362</v>
-      </c>
-      <c r="H9" s="47">
+        <v>42367</v>
+      </c>
+      <c r="H9" s="47" t="e">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.3004124595287539E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!P9</f>
@@ -23540,7 +23544,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002ea#0000</v>
+        <v>obj_002cc#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -23560,7 +23564,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -23570,19 +23574,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42369</v>
-      </c>
-      <c r="H10" s="47">
+        <v>42373</v>
+      </c>
+      <c r="H10" s="47" t="e">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.2992442103971538E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!P10</f>
@@ -23592,7 +23596,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002fa#0000</v>
+        <v>obj_002c2#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -23622,19 +23626,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42376</v>
-      </c>
-      <c r="H11" s="47">
+        <v>42377</v>
+      </c>
+      <c r="H11" s="47" t="e">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.2981855788175787E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!P11</f>
@@ -23644,7 +23648,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00320#0000</v>
+        <v>obj_002c5#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -23664,7 +23668,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -23674,19 +23678,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42387</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="47" t="e">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.2969220122143544E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!P12</f>
@@ -23696,7 +23700,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002de#0000</v>
+        <v>obj_002ea#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -23726,19 +23730,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42417</v>
-      </c>
-      <c r="H13" s="47">
+        <v>42418</v>
+      </c>
+      <c r="H13" s="47" t="e">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.2891558318826197E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!P13</f>
@@ -23748,7 +23752,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002f7#0000</v>
+        <v>obj_002e3#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -23778,19 +23782,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42446</v>
-      </c>
-      <c r="H14" s="47">
+        <v>42447</v>
+      </c>
+      <c r="H14" s="47" t="e">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.2739603835599392E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!P14</f>
@@ -23800,7 +23804,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002f9#0000</v>
+        <v>obj_002ad#0000</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -23946,9 +23950,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F19,Trigger)</f>
         <v>42535</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="110" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.784999999991356</v>
+        <v>#NUM!</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>Contribution!P19</f>
@@ -23996,9 +24000,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F20,Trigger)</f>
         <v>42625</v>
       </c>
-      <c r="H20" s="111">
+      <c r="H20" s="111" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.845000000000041</v>
+        <v>#NUM!</v>
       </c>
       <c r="I20" s="38" t="str">
         <f>Contribution!P20</f>
@@ -24046,9 +24050,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F21,Trigger)</f>
         <v>42713</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="111" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.813619077638975</v>
+        <v>#NUM!</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>Contribution!P21</f>
@@ -24096,9 +24100,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F22,Trigger)</f>
         <v>42803</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="111" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.824346265756816</v>
+        <v>#NUM!</v>
       </c>
       <c r="I22" s="38" t="str">
         <f>Contribution!P22</f>
@@ -24146,9 +24150,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F23,Trigger)</f>
         <v>42899</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="111" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.837146334230425</v>
+        <v>#NUM!</v>
       </c>
       <c r="I23" s="38" t="str">
         <f>Contribution!P23</f>
@@ -24196,9 +24200,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F24,Trigger)</f>
         <v>42989</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="111" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.820365313174008</v>
+        <v>#NUM!</v>
       </c>
       <c r="I24" s="38" t="str">
         <f>Contribution!P24</f>
@@ -24246,9 +24250,9 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F25,Trigger)</f>
         <v>43077</v>
       </c>
-      <c r="H25" s="112">
+      <c r="H25" s="112" t="e">
         <f>(1-_xll.qlIndexFixing(IborIndex,E25,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.775208373571076</v>
+        <v>#NUM!</v>
       </c>
       <c r="I25" s="40" t="str">
         <f>Contribution!P25</f>
@@ -24293,26 +24297,26 @@
       </c>
       <c r="E26" s="45">
         <f>EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G26" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="H26" s="46">
+        <v>42446</v>
+      </c>
+      <c r="H26" s="46" t="e">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.2748272412765391E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
       <c r="K26" s="91"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,"AudBBSW3M",DiscountingCurve,,Trigger)</f>
-        <v>obj_002f8#0000</v>
+        <v>obj_002ed#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="30" t="s">
@@ -24345,26 +24349,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" ref="E27:E28" si="4">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42537</v>
-      </c>
-      <c r="H27" s="47">
+        <v>42538</v>
+      </c>
+      <c r="H27" s="47" t="e">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.2438992531528139E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="57"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0030e#0000</v>
+        <v>obj_002c8#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="58"/>
@@ -24391,26 +24395,26 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42629</v>
-      </c>
-      <c r="H28" s="47">
+        <v>42632</v>
+      </c>
+      <c r="H28" s="47" t="e">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.2138886360609539E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
       <c r="K28" s="91"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002dd#0000</v>
+        <v>obj_002e0#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="91"/>
@@ -24437,19 +24441,19 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:E30" si="5">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42720</v>
-      </c>
-      <c r="H29" s="47">
+        <v>42723</v>
+      </c>
+      <c r="H29" s="47" t="e">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.2075000000246748E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!P29</f>
@@ -24462,7 +24466,7 @@
       <c r="K29" s="91"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e0#0000</v>
+        <v>obj_002cf#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -24489,26 +24493,26 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="5"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42902</v>
-      </c>
-      <c r="H30" s="47">
+        <v>42905</v>
+      </c>
+      <c r="H30" s="47" t="e">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.1944917523419344E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="55"/>
       <c r="K30" s="91"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00305#0000</v>
+        <v>obj_002ae#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
@@ -24535,19 +24539,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" ref="E31:E44" si="6">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
         <v>43087</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="47" t="e">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.1975000000201791E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!P31</f>
@@ -24560,7 +24564,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002d9#0000</v>
+        <v>obj_002ce#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
@@ -24587,19 +24591,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>43451</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="47" t="e">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.264852508887993E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!P32</f>
@@ -24612,7 +24616,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fc#0000</v>
+        <v>obj_002b6#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
@@ -24639,19 +24643,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43815</v>
-      </c>
-      <c r="H33" s="47">
+        <v>43816</v>
+      </c>
+      <c r="H33" s="47" t="e">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>2.3582718967434507E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!P33</f>
@@ -24661,7 +24665,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002eb#0000</v>
+        <v>obj_002ab#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
@@ -24688,19 +24692,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44181</v>
-      </c>
-      <c r="H34" s="47">
+        <v>44182</v>
+      </c>
+      <c r="H34" s="47" t="e">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>2.4738615920984804E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!P34</f>
@@ -24710,7 +24714,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fd#0000</v>
+        <v>obj_002dc#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
@@ -24737,26 +24741,26 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44546</v>
-      </c>
-      <c r="H35" s="47">
+        <v>44547</v>
+      </c>
+      <c r="H35" s="47" t="e">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>2.5876854147630281E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="57"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00315#0000</v>
+        <v>obj_002d6#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="57"/>
@@ -24783,19 +24787,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44911</v>
-      </c>
-      <c r="H36" s="47">
+        <v>44914</v>
+      </c>
+      <c r="H36" s="47" t="e">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>2.6900161680324036E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!P36</f>
@@ -24805,7 +24809,7 @@
       <c r="K36" s="57"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0030c#0000</v>
+        <v>obj_002c4#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -24832,26 +24836,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
         <v>45278</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="47" t="e">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>2.7795591600260561E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="57"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e5#0000</v>
+        <v>obj_002eb#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
@@ -24878,26 +24882,26 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45642</v>
-      </c>
-      <c r="H38" s="47">
+        <v>45643</v>
+      </c>
+      <c r="H38" s="47" t="e">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>2.8595435372670258E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
       <c r="K38" s="57"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002ec#0000</v>
+        <v>obj_002c0#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="57"/>
@@ -24924,19 +24928,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46007</v>
-      </c>
-      <c r="H39" s="47">
+        <v>46008</v>
+      </c>
+      <c r="H39" s="47" t="e">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>2.9346391388690111E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!P39</f>
@@ -24946,7 +24950,7 @@
       <c r="K39" s="57"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031a#0000</v>
+        <v>obj_002b0#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="57"/>
@@ -24973,19 +24977,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>46737</v>
-      </c>
-      <c r="H40" s="47">
+        <v>46738</v>
+      </c>
+      <c r="H40" s="47" t="e">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.0699716475778942E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!P40</f>
@@ -24995,7 +24999,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00317#0000</v>
+        <v>obj_002f5#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
@@ -25022,19 +25026,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>47833</v>
-      </c>
-      <c r="H41" s="47">
+        <v>47834</v>
+      </c>
+      <c r="H41" s="47" t="e">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>3.2163850072298723E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!P41</f>
@@ -25044,7 +25048,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00326#0000</v>
+        <v>obj_002b2#0000</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="57"/>
@@ -25071,19 +25075,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
         <v>49660</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="47" t="e">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>3.3751908824486004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!P42</f>
@@ -25093,7 +25097,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00311#0000</v>
+        <v>obj_002e7#0000</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -25120,19 +25124,19 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
         <v>51487</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="47" t="e">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>3.4223503463764224E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I43" s="38" t="str">
         <f>Contribution!P43</f>
@@ -25142,7 +25146,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00307#0000</v>
+        <v>obj_002d4#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -25169,19 +25173,19 @@
       </c>
       <c r="E44" s="49">
         <f t="shared" si="6"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F44" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L44,E44,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G44" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L44,F44,Trigger)</f>
         <v>53314</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="50" t="e">
         <f>_xll.qlIndexFixing(L44,E44,TRUE,InterestRatesTrigger)</f>
-        <v>3.4025427368974015E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I44" s="40" t="str">
         <f>Contribution!P44</f>
@@ -25191,7 +25195,7 @@
       <c r="K44" s="57"/>
       <c r="L44" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C44,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00302#0000</v>
+        <v>obj_002f4#0000</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -27463,19 +27467,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="H6" s="52">
+        <v>42355</v>
+      </c>
+      <c r="H6" s="52" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.4424948591929983E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!S6</f>
@@ -27483,9 +27487,9 @@
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="87" t="str">
+      <c r="L6" s="87" t="e">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_0032a#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -27515,19 +27519,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42355</v>
-      </c>
-      <c r="H7" s="152">
+        <v>42356</v>
+      </c>
+      <c r="H7" s="152" t="e">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.4425921612768256E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!S7</f>
@@ -27562,7 +27566,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -27572,19 +27576,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42356</v>
-      </c>
-      <c r="H8" s="52">
+        <v>42359</v>
+      </c>
+      <c r="H8" s="52" t="e">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.4426898626860316E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!S8</f>
@@ -27594,7 +27598,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00316#0000</v>
+        <v>obj_002da#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -27620,7 +27624,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -27630,19 +27634,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42362</v>
-      </c>
-      <c r="H9" s="47">
+        <v>42367</v>
+      </c>
+      <c r="H9" s="47" t="e">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.4432620947530164E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!S9</f>
@@ -27652,7 +27656,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002e7#0000</v>
+        <v>obj_002bf#0000</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="91"/>
@@ -27672,7 +27676,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -27682,19 +27686,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42369</v>
-      </c>
-      <c r="H10" s="47">
+        <v>42373</v>
+      </c>
+      <c r="H10" s="47" t="e">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.4438454802343364E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!S10</f>
@@ -27704,7 +27708,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002e1#0000</v>
+        <v>obj_002b5#0000</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="91"/>
@@ -27734,19 +27738,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42376</v>
-      </c>
-      <c r="H11" s="47">
+        <v>42377</v>
+      </c>
+      <c r="H11" s="47" t="e">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.4443995827002366E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!S11</f>
@@ -27756,7 +27760,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00325#0000</v>
+        <v>obj_002f2#0000</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="91"/>
@@ -27776,7 +27780,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -27786,19 +27790,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42387</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="47" t="e">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.4453813177658518E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!S12</f>
@@ -27808,7 +27812,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00313#0000</v>
+        <v>obj_002af#0000</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="91"/>
@@ -27838,19 +27842,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42417</v>
-      </c>
-      <c r="H13" s="47">
+        <v>42418</v>
+      </c>
+      <c r="H13" s="47" t="e">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,AllTriggers)</f>
-        <v>2.4421984227251878E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!S13</f>
@@ -27860,7 +27864,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0030d#0000</v>
+        <v>obj_002d5#0000</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="57"/>
@@ -27890,19 +27894,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42446</v>
-      </c>
-      <c r="H14" s="47">
+        <v>42447</v>
+      </c>
+      <c r="H14" s="47" t="e">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,AllTriggers)</f>
-        <v>2.4296202059641413E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!S14</f>
@@ -27912,7 +27916,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0031b#0000</v>
+        <v>obj_002d7#0000</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="57"/>
@@ -27932,7 +27936,7 @@
       <c r="A15" s="91"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
@@ -27942,19 +27946,19 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
         <v>42478</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="47" t="e">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,AllTriggers)</f>
-        <v>2.4197688711857301E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!S15</f>
@@ -27964,7 +27968,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C15="ON",C15="TN",C15="SN"),"1D",IF(C15="SW","1W",C15)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002dc#0000</v>
+        <v>obj_002bb#0000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="57"/>
@@ -27994,19 +27998,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42507</v>
-      </c>
-      <c r="H16" s="47">
+        <v>42508</v>
+      </c>
+      <c r="H16" s="47" t="e">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,AllTriggers)</f>
-        <v>2.4060012802185966E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!S16</f>
@@ -28016,7 +28020,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C16="ON",C16="TN",C16="SN"),"1D",IF(C16="SW","1W",C16)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_002e3#0000</v>
+        <v>obj_002f6#0000</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="57"/>
@@ -28036,7 +28040,7 @@
       <c r="A17" s="91"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>14</v>
@@ -28046,19 +28050,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17,Trigger)</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17,Trigger)</f>
-        <v>42538</v>
-      </c>
-      <c r="H17" s="47">
+        <v>42541</v>
+      </c>
+      <c r="H17" s="47" t="e">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,AllTriggers)</f>
-        <v>2.4022631830517453E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!S17</f>
@@ -28068,7 +28072,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C17="ON",C17="TN",C17="SN"),"1D",IF(C17="SW","1W",C17)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00314#0000</v>
+        <v>obj_002b3#0000</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="57"/>
@@ -28319,26 +28323,26 @@
       </c>
       <c r="E26" s="45">
         <f t="shared" ref="E26:E28" si="2">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F26" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G26" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="H26" s="46">
+        <v>42446</v>
+      </c>
+      <c r="H26" s="46" t="e">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.4302068558067186E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
       <c r="K26" s="41"/>
       <c r="L26" s="88" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00303#0000</v>
+        <v>obj_002e5#0000</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="87" t="s">
@@ -28371,26 +28375,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42537</v>
-      </c>
-      <c r="H27" s="47">
+        <v>42538</v>
+      </c>
+      <c r="H27" s="47" t="e">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.4027344726778914E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002df#0000</v>
+        <v>obj_002be#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -28417,26 +28421,26 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="2"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42629</v>
-      </c>
-      <c r="H28" s="47">
+        <v>42632</v>
+      </c>
+      <c r="H28" s="47" t="e">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.3779619783163033E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fe#0000</v>
+        <v>obj_002cd#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -28463,19 +28467,19 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:E30" si="3">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42720</v>
-      </c>
-      <c r="H29" s="47">
+        <v>42723</v>
+      </c>
+      <c r="H29" s="47" t="e">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.3588688513978308E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!S29</f>
@@ -28485,7 +28489,7 @@
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00321#0000</v>
+        <v>obj_002b4#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="57"/>
@@ -28512,26 +28516,26 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="3"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42902</v>
-      </c>
-      <c r="H30" s="47">
+        <v>42905</v>
+      </c>
+      <c r="H30" s="47" t="e">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.3396686137818461E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="55"/>
       <c r="K30" s="41"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0030f#0000</v>
+        <v>obj_002ba#0000</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="57"/>
@@ -28558,19 +28562,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" ref="E31:E44" si="4">EvaluationDate</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
         <v>43087</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="47" t="e">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>2.3454206411348839E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!S31</f>
@@ -28580,7 +28584,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00304#0000</v>
+        <v>obj_002ee#0000</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="57"/>
@@ -28607,19 +28611,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>43451</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="47" t="e">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>2.4019938801152489E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!S32</f>
@@ -28629,7 +28633,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fb#0000</v>
+        <v>obj_002d2#0000</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="57"/>
@@ -28656,19 +28660,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43815</v>
-      </c>
-      <c r="H33" s="47">
+        <v>43816</v>
+      </c>
+      <c r="H33" s="47" t="e">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>2.4823924035525868E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!S33</f>
@@ -28681,7 +28685,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f6#0000</v>
+        <v>obj_002f3#0000</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="57"/>
@@ -28708,19 +28712,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44181</v>
-      </c>
-      <c r="H34" s="47">
+        <v>44182</v>
+      </c>
+      <c r="H34" s="47" t="e">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>2.5874129414548756E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!S34</f>
@@ -28733,7 +28737,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e6#0000</v>
+        <v>obj_002aa#0000</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="57"/>
@@ -28760,19 +28764,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44546</v>
-      </c>
-      <c r="H35" s="47">
+        <v>44547</v>
+      </c>
+      <c r="H35" s="47" t="e">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>2.6936765261980983E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="38" t="str">
@@ -28782,7 +28786,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00323#0000</v>
+        <v>obj_002f8#0000</v>
       </c>
       <c r="M35" s="85"/>
       <c r="N35" s="57"/>
@@ -28809,19 +28813,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44911</v>
-      </c>
-      <c r="H36" s="47">
+        <v>44914</v>
+      </c>
+      <c r="H36" s="47" t="e">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>2.7899361744716088E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!S36</f>
@@ -28834,7 +28838,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00312#0000</v>
+        <v>obj_002ef#0000</v>
       </c>
       <c r="M36" s="85"/>
       <c r="N36" s="57"/>
@@ -28861,19 +28865,19 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
         <v>45278</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="47" t="e">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>2.8774434115369198E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="str">
@@ -28883,7 +28887,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00306#0000</v>
+        <v>obj_002c3#0000</v>
       </c>
       <c r="M37" s="85"/>
       <c r="N37" s="57"/>
@@ -28910,19 +28914,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45642</v>
-      </c>
-      <c r="H38" s="47">
+        <v>45643</v>
+      </c>
+      <c r="H38" s="47" t="e">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>2.9549240736922649E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38" t="str">
@@ -28932,7 +28936,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031c#0000</v>
+        <v>obj_002dd#0000</v>
       </c>
       <c r="M38" s="85"/>
       <c r="N38" s="57"/>
@@ -28959,19 +28963,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46007</v>
-      </c>
-      <c r="H39" s="47">
+        <v>46008</v>
+      </c>
+      <c r="H39" s="47" t="e">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>3.0211806612837507E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!S39</f>
@@ -28984,7 +28988,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f2#0000</v>
+        <v>obj_002ac#0000</v>
       </c>
       <c r="M39" s="85"/>
       <c r="N39" s="57"/>
@@ -29011,19 +29015,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>46737</v>
-      </c>
-      <c r="H40" s="47">
+        <v>46738</v>
+      </c>
+      <c r="H40" s="47" t="e">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>3.1461904518234517E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!S40</f>
@@ -29036,7 +29040,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f0#0000</v>
+        <v>obj_002e2#0000</v>
       </c>
       <c r="M40" s="85"/>
       <c r="N40" s="57"/>
@@ -29063,19 +29067,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>47833</v>
-      </c>
-      <c r="H41" s="47">
+        <v>47834</v>
+      </c>
+      <c r="H41" s="47" t="e">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>3.2836858115549622E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!S41</f>
@@ -29088,7 +29092,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00301#0000</v>
+        <v>obj_002d9#0000</v>
       </c>
       <c r="M41" s="85"/>
       <c r="N41" s="57"/>
@@ -29115,19 +29119,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
         <v>49660</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="47" t="e">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>3.4311959289351206E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!S42</f>
@@ -29140,7 +29144,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031f#0000</v>
+        <v>obj_002b1#0000</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
@@ -29167,19 +29171,19 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
         <v>51487</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="47" t="e">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>3.4737019098151349E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I43" s="38" t="str">
         <f>Contribution!S43</f>
@@ -29192,7 +29196,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002db#0000</v>
+        <v>obj_002b8#0000</v>
       </c>
       <c r="M43" s="57"/>
       <c r="N43" s="57"/>
@@ -29219,19 +29223,19 @@
       </c>
       <c r="E44" s="49">
         <f t="shared" si="4"/>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="F44" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L44,E44,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="G44" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L44,F44,Trigger)</f>
         <v>53314</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="50" t="e">
         <f>_xll.qlIndexFixing(L44,E44,TRUE,AllTriggers)</f>
-        <v>3.4499568204436462E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I44" s="40" t="str">
         <f>Contribution!S44</f>
@@ -29244,7 +29248,7 @@
       <c r="K44" s="41"/>
       <c r="L44" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C44,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_002ef#0000</v>
+        <v>obj_002de#0000</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
